--- a/agents.xlsx
+++ b/agents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commu\Desktop\Projet python\plateforme QRcode rgeeci\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commu\Desktop\Projet python\plateforme QRcode rgeeci\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A2625-0FCC-408C-9266-686CF601F08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BA2A0D-2F53-4A43-9ADA-830AF3C4F753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C004D02E-7486-4D27-B099-C5774939D326}"/>
   </bookViews>
@@ -13628,1583 +13628,1583 @@
     <t>RGEECIAGT4DU12</t>
   </si>
   <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT9J21Z</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT4E021</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE5V03L</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT325P2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTM1RY7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT22164</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTY0E78</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEG12C3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT28X22</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT211HBCG</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT54PXO</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTW24I3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEX1626</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE267NNPC</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTF12K1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT439ZVNP</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6W7F2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT469TKSZ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEI3RQW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT62S01</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT7E2U1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1530X</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1Q2W1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE939OLCC</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTV1051</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTZD061</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTB201O</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT3C516</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6322D</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT51111</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT665AN</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEZTC11</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTT12Y1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE25NR2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1W629</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT739XQUI</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTV01C2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE7V1H3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT4MW08</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTE6014</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE0DI71</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE51R21</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1E035</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2224Q</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT0Q11C</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT19121</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT424J1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT421UHEH</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE21322</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1A1JZ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTIK1D1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE2J0K2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2MQ14</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2N8I6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT700FLIS</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTI34U8</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT10181</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE111LN</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT15KSI</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT285J3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTHMTG1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT66FY0</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT15R0T</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE647FYVG</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTX4918</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE21721</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE418Q9</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT97GX1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT4122N</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE77I1V</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12SH8</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT650W9</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP2132</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT168VT</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE235R2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTX2BYK</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT8PZ1S</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTU8W2B</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT211E4</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT61EP1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT7NH39</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1SZ1K</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICET5A16</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTJI210</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2G1W2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE5325X</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE7B51F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTE12ZL</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1F76T</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2Z2Q7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT828YTXF</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTM2I20</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTE7108</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT31221</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT517LNRN</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT08QI9</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE922S1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1C221</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT01Z4A</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT41X61</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT14TR5</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1AY11</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE906PJ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEW10N2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2R11Y</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE107HPFP</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICELO15F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT61C34</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT80M4Q</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT91668</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT126PE</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICECY111</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE3I129</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE2C4A6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT997EFWB</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTA18Z1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTD7X41</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT350JKQL</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT84NBI</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEO75PV</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2V11S</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE11C53</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTW1FLK</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT111Z2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT21B27</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1225R</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP240X</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2K411</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTW2162</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP822A</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT529K4</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE32211</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTY974E</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE8F300</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT3N11H</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE89NYF</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTN8244</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT501RZ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT3K4YU</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE217MKZL</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTIK019</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT420G2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE2DSR1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTQ931S</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT13117</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12SF1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE242Y1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTY0329</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE61RTS</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT210C6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTYI01P</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTNLZ7I</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTL6C1T</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2MTR0</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT15022</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTJ2105</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1UW96</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTG1415</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT70T96</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT15926</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE2LS21</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTM35LY</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1R17L</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTD2B7J</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT65152</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE63T18</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT625GUJL</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2B21R</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT24568</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTA22G1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT292B1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6WE2V</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTM24J0</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE825K5</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2127D</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTV1O1Q</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTCKN14</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12952</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE91110</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTO21GW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTU1R28</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT84512</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT20X51</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTR1H2F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE0G115</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTTEP1A</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTWP1R5</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTG1613</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT884SEGA</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTLNI1F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTXF2IW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT23BRN</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE5S932</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT5O63C</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6WPN4</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT28R00</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT185QY</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEFG101</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEAV223</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEI1H71</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT41H64</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE5280N</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP118X</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTI9021</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTX6B02</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE438EGKY</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE9N629</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICELQJ12</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT116T1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE985OUMB</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT408OSVV</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE11169</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE19021</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT22TJS</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTN21Y1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE728KDEH</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT21VWH</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT4A250</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT993DOSB</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTKJ616</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTU1ND5</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT4G51L</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTE1057</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE540HW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1SBIR</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTC1199</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE6232B</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTX2T2Q</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEN3WQG</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT82L51</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE433USYP</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE158RBIF</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTK1B1V</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT252A1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTREVM1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTI1WT1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT8116S</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6812V</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE11CA1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1721Q</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT7221J</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTO1313</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE4SQI6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTJ1E10</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT122WX</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6C1X6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1F216</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT685YQUA</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT221TC</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT20H12</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTZCA98</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTRJ01F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTQM714</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTC0511</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEH1521</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICES17Q5</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTS1U75</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1322Z</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTS3211</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTA6422</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEZK7B1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEHB512</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE72110</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT510YDVY</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT150QLHB</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1G28C</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2R1MN</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEC75VA</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12T45</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEA12X1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE756BCLE</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTDJHR4</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTV0F80</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP212U</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1223Y</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTZ913N</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT11QXU</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE12892</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT7EN3H</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTOH2KJ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT92I61</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1Z6AQ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12EW1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT16364</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT303CJYG</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEK1Y2A</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12B11</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT122R4</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT83214</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP181D</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT161X7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE366ZFEQ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT211LF</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTW1A97</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT21V18</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE764OTRE</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT32TJC</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICESN12H</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTT84M3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT10D11</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTC1553</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT880TKEM</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEA8RW1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTGX123</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT5X015</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT62APD</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE136QG</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT627PCFW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT410URJF</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT531Z1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE570WFEW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2GHNU</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1GDZR</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1411J</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTNK83E</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTL912X</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT9191S</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTN1821</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT25104</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT29FV1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT31290</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTVJC1T</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT81H91</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE11A72</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTJ2FV7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT16E01</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTOR962</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT3WK91</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTM215C</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT20032</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT225YBTL</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT72R1I</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1RE22</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTIC11W</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTUNZ7P</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTCP5X2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT213DSJK</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1IBAE</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1Q26E</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE12121</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTM2211</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE52I21</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTAMOC7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTV23E2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT15E6G</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT421X2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTY86Z2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEPR4SA</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE62RP3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEA2512</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT11H3M</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE12913</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT0J7TW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1VU13</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT13UD3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2065D</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE74DI1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE5F112</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12J3I</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT492WHSQ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE327ZHTT</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP12Z6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTK0131</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT92218</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE151E5</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTS1FNR</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1X1R7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT542IKAV</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1KO49</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE211EJ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1RH6O</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1BO28</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT14I72</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE451GXAK</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT50112</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT90109</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEY1316</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1BZN5</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTY24S3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT10127</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT116PEXH</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE460NXUK</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT875Y1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1O311</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT761Z6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE27Z13</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICES12Q1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT922FFAO</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT929F6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6KAR0</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTJ1B11</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT14O28</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE2D212</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1X122</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTB15HA</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTL24UN</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT149O3</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT116WLUD</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT15B25</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT7V227</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTIG248</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1T019</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2X24F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTNSYVR</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT8O162</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT291DR</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTR66S1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1UP03</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT96620</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT5011E</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE961WOAM</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT47UB6</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE22212</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT718XDAM</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE42K25</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEL32KP</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTLDCS2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1282A</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE8VFOS</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE25403</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTD4NU2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTG2262</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTEPSU1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1U51D</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12571</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT61596</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT32U6M</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT50716</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE62H22</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT51C24</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT328QF</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE51831</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1W228</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT659NPBX</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1R011</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE01O11</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT11322</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT419XXPK</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE220VVSQ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEK5NE0</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT72J18</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEPI12M</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE3A11P</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1FJ21</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT26J13</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT22BK1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTY1N18</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICES8O29</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE878QBMJ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT5O20L</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEPG230</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTB5DSG</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT7FT3O</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT0X621</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT71612</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE832PWEW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEK711G</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTB9261</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT10YA4</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT5H0IX</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTEHR1K</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT289UH</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2WO27</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT427L7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT5P11F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT224N0</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE1Y1OI</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT61127</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTZF178</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT5L31F</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTK184H</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1810N</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE36TL1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTPT1EJ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2N21T</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTQO021</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE0Q062</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT6O61R</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE356M2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT556LVSR</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1611R</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT11H25</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT997OBCQ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEB101L</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTP5A22</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT628UG</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTH1232</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT01171</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICED29A9</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT106M2</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT7K51T</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTM0F23</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICEJ13N1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT02211</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTA7D11</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTK1134</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT755GUPF</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTYX5U1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT3831D</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2S118</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1130A</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT22113</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT12211</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTVQ912</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE20X0J</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1AV7S</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT1P455</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT40KW7</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTAT1HS</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT968XFVI</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTE2671</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTU1301</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT451RW</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT02231</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTVS421</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT0921V</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT911P1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT71FRQ</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGTMW13L</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECICE652O1</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT2L106</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT3722C</t>
-  </si>
-  <si>
-    <t>https://personnel_rgeeci.streamlit.app/?matricule=RGEECIAGT4DU12</t>
-  </si>
-  <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT9J21Z</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT4E021</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE5V03L</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT325P2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTM1RY7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT22164</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTY0E78</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEG12C3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT28X22</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT211HBCG</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT54PXO</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTW24I3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEX1626</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE267NNPC</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTF12K1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT439ZVNP</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6W7F2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT469TKSZ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEI3RQW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT62S01</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT7E2U1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1530X</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1Q2W1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE939OLCC</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTV1051</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTZD061</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTB201O</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT3C516</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6322D</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT51111</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT665AN</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEZTC11</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTT12Y1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE25NR2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1W629</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT739XQUI</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTV01C2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE7V1H3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT4MW08</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTE6014</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE0DI71</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE51R21</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1E035</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2224Q</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT0Q11C</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT19121</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT424J1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT421UHEH</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE21322</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1A1JZ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTIK1D1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE2J0K2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2MQ14</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2N8I6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT700FLIS</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTI34U8</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT10181</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE111LN</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT15KSI</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT285J3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTHMTG1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT66FY0</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT15R0T</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE647FYVG</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTX4918</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE21721</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE418Q9</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT97GX1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT4122N</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE77I1V</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12SH8</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT650W9</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP2132</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT168VT</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE235R2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTX2BYK</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT8PZ1S</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTU8W2B</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT211E4</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT61EP1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT7NH39</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1SZ1K</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICET5A16</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTJI210</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2G1W2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE5325X</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE7B51F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTE12ZL</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1F76T</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2Z2Q7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT828YTXF</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTM2I20</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTE7108</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT31221</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT517LNRN</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT08QI9</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE922S1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1C221</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT01Z4A</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT41X61</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT14TR5</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1AY11</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE906PJ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEW10N2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2R11Y</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE107HPFP</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICELO15F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT61C34</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT80M4Q</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT91668</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT126PE</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICECY111</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE3I129</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE2C4A6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT997EFWB</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTA18Z1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTD7X41</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT350JKQL</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT84NBI</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEO75PV</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2V11S</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE11C53</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTW1FLK</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT111Z2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT21B27</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1225R</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP240X</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2K411</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTW2162</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP822A</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT529K4</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE32211</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTY974E</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE8F300</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT3N11H</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE89NYF</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTN8244</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT501RZ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT3K4YU</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE217MKZL</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTIK019</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT420G2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE2DSR1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTQ931S</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT13117</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12SF1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE242Y1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTY0329</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE61RTS</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT210C6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTYI01P</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTNLZ7I</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTL6C1T</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2MTR0</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT15022</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTJ2105</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1UW96</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTG1415</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT70T96</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT15926</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE2LS21</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTM35LY</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1R17L</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTD2B7J</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT65152</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE63T18</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT625GUJL</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2B21R</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT24568</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTA22G1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT292B1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6WE2V</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTM24J0</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE825K5</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2127D</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTV1O1Q</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTCKN14</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12952</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE91110</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTO21GW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTU1R28</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT84512</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT20X51</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTR1H2F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE0G115</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTTEP1A</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTWP1R5</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTG1613</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT884SEGA</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTLNI1F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTXF2IW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT23BRN</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE5S932</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT5O63C</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6WPN4</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT28R00</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT185QY</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEFG101</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEAV223</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEI1H71</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT41H64</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE5280N</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP118X</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTI9021</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTX6B02</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE438EGKY</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE9N629</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICELQJ12</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT116T1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE985OUMB</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT408OSVV</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE11169</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE19021</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT22TJS</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTN21Y1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE728KDEH</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT21VWH</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT4A250</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT993DOSB</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTKJ616</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTU1ND5</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT4G51L</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTE1057</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE540HW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1SBIR</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTC1199</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE6232B</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTX2T2Q</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEN3WQG</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT82L51</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE433USYP</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE158RBIF</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTK1B1V</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT252A1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTREVM1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTI1WT1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT8116S</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6812V</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE11CA1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1721Q</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT7221J</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTO1313</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE4SQI6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTJ1E10</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT122WX</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6C1X6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1F216</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT685YQUA</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT221TC</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT20H12</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTZCA98</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTRJ01F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTQM714</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTC0511</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEH1521</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICES17Q5</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTS1U75</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1322Z</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTS3211</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTA6422</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEZK7B1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEHB512</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE72110</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT510YDVY</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT150QLHB</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1G28C</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2R1MN</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEC75VA</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12T45</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEA12X1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE756BCLE</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTDJHR4</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTV0F80</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP212U</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1223Y</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTZ913N</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT11QXU</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE12892</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT7EN3H</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTOH2KJ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT92I61</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1Z6AQ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12EW1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT16364</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT303CJYG</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEK1Y2A</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12B11</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT122R4</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT83214</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP181D</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT161X7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE366ZFEQ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT211LF</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTW1A97</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT21V18</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE764OTRE</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT32TJC</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICESN12H</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTT84M3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT10D11</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTC1553</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT880TKEM</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEA8RW1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTGX123</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT5X015</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT62APD</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE136QG</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT627PCFW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT410URJF</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT531Z1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE570WFEW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2GHNU</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1GDZR</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1411J</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTNK83E</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTL912X</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT9191S</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTN1821</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT25104</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT29FV1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT31290</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTVJC1T</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT81H91</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE11A72</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTJ2FV7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT16E01</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTOR962</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT3WK91</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTM215C</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT20032</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT225YBTL</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT72R1I</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1RE22</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTIC11W</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTUNZ7P</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTCP5X2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT213DSJK</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1IBAE</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1Q26E</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE12121</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTM2211</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE52I21</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTAMOC7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTV23E2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT15E6G</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT421X2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTY86Z2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEPR4SA</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE62RP3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEA2512</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT11H3M</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE12913</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT0J7TW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1VU13</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT13UD3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2065D</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE74DI1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE5F112</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12J3I</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT492WHSQ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE327ZHTT</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP12Z6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTK0131</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT92218</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE151E5</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTS1FNR</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1X1R7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT542IKAV</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1KO49</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE211EJ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1RH6O</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1BO28</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT14I72</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE451GXAK</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT50112</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT90109</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEY1316</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1BZN5</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTY24S3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT10127</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT116PEXH</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE460NXUK</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT875Y1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1O311</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT761Z6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE27Z13</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICES12Q1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT922FFAO</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT929F6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6KAR0</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTJ1B11</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT14O28</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE2D212</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1X122</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTB15HA</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTL24UN</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT149O3</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT116WLUD</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT15B25</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT7V227</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTIG248</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1T019</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2X24F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTNSYVR</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT8O162</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT291DR</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTR66S1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1UP03</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT96620</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT5011E</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE961WOAM</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT47UB6</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE22212</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT718XDAM</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE42K25</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEL32KP</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTLDCS2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1282A</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE8VFOS</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE25403</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTD4NU2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTG2262</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTEPSU1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1U51D</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12571</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT61596</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT32U6M</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT50716</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE62H22</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT51C24</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT328QF</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE51831</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1W228</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT659NPBX</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1R011</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE01O11</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT11322</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT419XXPK</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE220VVSQ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEK5NE0</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT72J18</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEPI12M</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE3A11P</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1FJ21</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT26J13</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT22BK1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTY1N18</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICES8O29</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE878QBMJ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT5O20L</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEPG230</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTB5DSG</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT7FT3O</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT0X621</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT71612</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE832PWEW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEK711G</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTB9261</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT10YA4</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT5H0IX</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTEHR1K</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT289UH</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2WO27</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT427L7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT5P11F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT224N0</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE1Y1OI</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT61127</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTZF178</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT5L31F</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTK184H</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1810N</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE36TL1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTPT1EJ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2N21T</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTQO021</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE0Q062</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT6O61R</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE356M2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT556LVSR</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1611R</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT11H25</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT997OBCQ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEB101L</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTP5A22</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT628UG</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTH1232</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT01171</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICED29A9</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT106M2</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT7K51T</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTM0F23</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICEJ13N1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT02211</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTA7D11</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTK1134</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT755GUPF</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTYX5U1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT3831D</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2S118</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1130A</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT22113</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT12211</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTVQ912</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE20X0J</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1AV7S</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT1P455</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT40KW7</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTAT1HS</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT968XFVI</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTE2671</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTU1301</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT451RW</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT02231</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTVS421</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT0921V</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT911P1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT71FRQ</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGTMW13L</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECICE652O1</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT2L106</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT3722C</t>
+  </si>
+  <si>
+    <t>https://personnelrgeeci.streamlit.app/?matricule=RGEECIAGT4DU12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -15216,14 +15216,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -15285,11 +15277,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -15322,10 +15313,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -15731,8 +15720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAD97F3-E068-4FCE-BCB0-4B6BF785B557}">
   <dimension ref="A1:S524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15796,7 +15785,7 @@
         <v>9</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>5053</v>
+        <v>4530</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>238</v>
@@ -15854,8 +15843,8 @@
       <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="20" t="s">
-        <v>4530</v>
+      <c r="P2" s="19" t="s">
+        <v>4531</v>
       </c>
       <c r="Q2" s="6">
         <v>20</v>
@@ -15914,7 +15903,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>4531</v>
+        <v>4532</v>
       </c>
       <c r="Q3" s="6">
         <v>18</v>
@@ -15973,7 +15962,7 @@
         <v>35</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>4532</v>
+        <v>4533</v>
       </c>
       <c r="Q4" s="6">
         <v>18</v>
@@ -16030,7 +16019,7 @@
         <v>42</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>4533</v>
+        <v>4534</v>
       </c>
       <c r="Q5" s="6">
         <v>18</v>
@@ -16089,7 +16078,7 @@
         <v>51</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>4534</v>
+        <v>4535</v>
       </c>
       <c r="Q6" s="6">
         <v>16</v>
@@ -16148,7 +16137,7 @@
         <v>59</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>4535</v>
+        <v>4536</v>
       </c>
       <c r="Q7" s="6">
         <v>16</v>
@@ -16207,7 +16196,7 @@
         <v>67</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>4536</v>
+        <v>4537</v>
       </c>
       <c r="Q8" s="6">
         <v>16</v>
@@ -16266,7 +16255,7 @@
         <v>75</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>4537</v>
+        <v>4538</v>
       </c>
       <c r="Q9" s="6">
         <v>16</v>
@@ -16325,7 +16314,7 @@
         <v>83</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>4538</v>
+        <v>4539</v>
       </c>
       <c r="Q10" s="6">
         <v>16</v>
@@ -16382,7 +16371,7 @@
         <v>89</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>4539</v>
+        <v>4540</v>
       </c>
       <c r="Q11" s="6">
         <v>16</v>
@@ -16441,7 +16430,7 @@
         <v>97</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>4540</v>
+        <v>4541</v>
       </c>
       <c r="Q12" s="6">
         <v>16</v>
@@ -16498,7 +16487,7 @@
         <v>104</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>4541</v>
+        <v>4542</v>
       </c>
       <c r="Q13" s="6">
         <v>16</v>
@@ -16557,7 +16546,7 @@
         <v>112</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>4542</v>
+        <v>4543</v>
       </c>
       <c r="Q14" s="6">
         <v>16</v>
@@ -16614,7 +16603,7 @@
         <v>119</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>4543</v>
+        <v>4544</v>
       </c>
       <c r="Q15" s="6">
         <v>16</v>
@@ -16673,7 +16662,7 @@
         <v>127</v>
       </c>
       <c r="P16" s="19" t="s">
-        <v>4544</v>
+        <v>4545</v>
       </c>
       <c r="Q16" s="6">
         <v>15</v>
@@ -16730,7 +16719,7 @@
         <v>132</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>4545</v>
+        <v>4546</v>
       </c>
       <c r="Q17" s="6">
         <v>15</v>
@@ -16789,7 +16778,7 @@
         <v>140</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>4546</v>
+        <v>4547</v>
       </c>
       <c r="Q18" s="6">
         <v>15</v>
@@ -16846,7 +16835,7 @@
         <v>147</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>4547</v>
+        <v>4548</v>
       </c>
       <c r="Q19" s="6">
         <v>15</v>
@@ -16905,7 +16894,7 @@
         <v>154</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="Q20" s="6">
         <v>15</v>
@@ -16964,7 +16953,7 @@
         <v>162</v>
       </c>
       <c r="P21" s="19" t="s">
-        <v>4549</v>
+        <v>4550</v>
       </c>
       <c r="Q21" s="6">
         <v>15</v>
@@ -17023,7 +17012,7 @@
         <v>170</v>
       </c>
       <c r="P22" s="19" t="s">
-        <v>4550</v>
+        <v>4551</v>
       </c>
       <c r="Q22" s="6">
         <v>14</v>
@@ -17082,7 +17071,7 @@
         <v>178</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>4551</v>
+        <v>4552</v>
       </c>
       <c r="Q23" s="6">
         <v>14</v>
@@ -17141,7 +17130,7 @@
         <v>185</v>
       </c>
       <c r="P24" s="19" t="s">
-        <v>4552</v>
+        <v>4553</v>
       </c>
       <c r="Q24" s="6">
         <v>14</v>
@@ -17198,7 +17187,7 @@
         <v>192</v>
       </c>
       <c r="P25" s="19" t="s">
-        <v>4553</v>
+        <v>4554</v>
       </c>
       <c r="Q25" s="6">
         <v>14</v>
@@ -17257,7 +17246,7 @@
         <v>200</v>
       </c>
       <c r="P26" s="19" t="s">
-        <v>4554</v>
+        <v>4555</v>
       </c>
       <c r="Q26" s="6">
         <v>14</v>
@@ -17316,7 +17305,7 @@
         <v>207</v>
       </c>
       <c r="P27" s="19" t="s">
-        <v>4555</v>
+        <v>4556</v>
       </c>
       <c r="Q27" s="6">
         <v>14</v>
@@ -17373,7 +17362,7 @@
         <v>214</v>
       </c>
       <c r="P28" s="19" t="s">
-        <v>4556</v>
+        <v>4557</v>
       </c>
       <c r="Q28" s="6">
         <v>14</v>
@@ -17432,7 +17421,7 @@
         <v>222</v>
       </c>
       <c r="P29" s="19" t="s">
-        <v>4557</v>
+        <v>4558</v>
       </c>
       <c r="Q29" s="6">
         <v>14</v>
@@ -17491,7 +17480,7 @@
         <v>229</v>
       </c>
       <c r="P30" s="19" t="s">
-        <v>4558</v>
+        <v>4559</v>
       </c>
       <c r="Q30" s="6">
         <v>14</v>
@@ -17550,7 +17539,7 @@
         <v>302</v>
       </c>
       <c r="P31" s="19" t="s">
-        <v>4559</v>
+        <v>4560</v>
       </c>
       <c r="Q31" s="6">
         <v>14</v>
@@ -17609,7 +17598,7 @@
         <v>312</v>
       </c>
       <c r="P32" s="19" t="s">
-        <v>4560</v>
+        <v>4561</v>
       </c>
       <c r="Q32" s="6">
         <v>14</v>
@@ -17668,7 +17657,7 @@
         <v>320</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>4561</v>
+        <v>4562</v>
       </c>
       <c r="Q33" s="6">
         <v>14</v>
@@ -17727,7 +17716,7 @@
         <v>330</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="Q34" s="6">
         <v>14</v>
@@ -17786,7 +17775,7 @@
         <v>340</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>4563</v>
+        <v>4564</v>
       </c>
       <c r="Q35" s="6">
         <v>14</v>
@@ -17845,7 +17834,7 @@
         <v>349</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>4564</v>
+        <v>4565</v>
       </c>
       <c r="Q36" s="6">
         <v>14</v>
@@ -17902,7 +17891,7 @@
         <v>358</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>4565</v>
+        <v>4566</v>
       </c>
       <c r="Q37" s="6">
         <v>13</v>
@@ -17961,7 +17950,7 @@
         <v>367</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="Q38" s="6">
         <v>13</v>
@@ -18020,7 +18009,7 @@
         <v>377</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>4567</v>
+        <v>4568</v>
       </c>
       <c r="Q39" s="6">
         <v>13</v>
@@ -18079,7 +18068,7 @@
         <v>385</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>4568</v>
+        <v>4569</v>
       </c>
       <c r="Q40" s="6">
         <v>13</v>
@@ -18136,7 +18125,7 @@
         <v>394</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>4569</v>
+        <v>4570</v>
       </c>
       <c r="Q41" s="6">
         <v>13</v>
@@ -18193,7 +18182,7 @@
         <v>401</v>
       </c>
       <c r="P42" s="19" t="s">
-        <v>4570</v>
+        <v>4571</v>
       </c>
       <c r="Q42" s="6">
         <v>13</v>
@@ -18252,7 +18241,7 @@
         <v>411</v>
       </c>
       <c r="P43" s="19" t="s">
-        <v>4571</v>
+        <v>4572</v>
       </c>
       <c r="Q43" s="6">
         <v>13</v>
@@ -18311,7 +18300,7 @@
         <v>421</v>
       </c>
       <c r="P44" s="19" t="s">
-        <v>4572</v>
+        <v>4573</v>
       </c>
       <c r="Q44" s="6">
         <v>13</v>
@@ -18370,7 +18359,7 @@
         <v>430</v>
       </c>
       <c r="P45" s="19" t="s">
-        <v>4573</v>
+        <v>4574</v>
       </c>
       <c r="Q45" s="6">
         <v>13</v>
@@ -18429,7 +18418,7 @@
         <v>440</v>
       </c>
       <c r="P46" s="19" t="s">
-        <v>4574</v>
+        <v>4575</v>
       </c>
       <c r="Q46" s="6">
         <v>13</v>
@@ -18488,7 +18477,7 @@
         <v>449</v>
       </c>
       <c r="P47" s="19" t="s">
-        <v>4575</v>
+        <v>4576</v>
       </c>
       <c r="Q47" s="6">
         <v>12</v>
@@ -18547,7 +18536,7 @@
         <v>459</v>
       </c>
       <c r="P48" s="19" t="s">
-        <v>4576</v>
+        <v>4577</v>
       </c>
       <c r="Q48" s="6">
         <v>12</v>
@@ -18604,7 +18593,7 @@
         <v>468</v>
       </c>
       <c r="P49" s="19" t="s">
-        <v>4577</v>
+        <v>4578</v>
       </c>
       <c r="Q49" s="6">
         <v>12</v>
@@ -18663,7 +18652,7 @@
         <v>478</v>
       </c>
       <c r="P50" s="19" t="s">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="Q50" s="6">
         <v>12</v>
@@ -18722,7 +18711,7 @@
         <v>488</v>
       </c>
       <c r="P51" s="19" t="s">
-        <v>4579</v>
+        <v>4580</v>
       </c>
       <c r="Q51" s="6">
         <v>12</v>
@@ -18781,7 +18770,7 @@
         <v>498</v>
       </c>
       <c r="P52" s="19" t="s">
-        <v>4580</v>
+        <v>4581</v>
       </c>
       <c r="Q52" s="6">
         <v>12</v>
@@ -18840,7 +18829,7 @@
         <v>506</v>
       </c>
       <c r="P53" s="19" t="s">
-        <v>4581</v>
+        <v>4582</v>
       </c>
       <c r="Q53" s="6">
         <v>12</v>
@@ -18899,7 +18888,7 @@
         <v>516</v>
       </c>
       <c r="P54" s="19" t="s">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="Q54" s="6">
         <v>12</v>
@@ -18958,7 +18947,7 @@
         <v>526</v>
       </c>
       <c r="P55" s="19" t="s">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="Q55" s="6">
         <v>12</v>
@@ -19015,7 +19004,7 @@
         <v>535</v>
       </c>
       <c r="P56" s="19" t="s">
-        <v>4584</v>
+        <v>4585</v>
       </c>
       <c r="Q56" s="6">
         <v>12</v>
@@ -19072,7 +19061,7 @@
         <v>541</v>
       </c>
       <c r="P57" s="19" t="s">
-        <v>4585</v>
+        <v>4586</v>
       </c>
       <c r="Q57" s="6">
         <v>12</v>
@@ -19131,7 +19120,7 @@
         <v>551</v>
       </c>
       <c r="P58" s="19" t="s">
-        <v>4586</v>
+        <v>4587</v>
       </c>
       <c r="Q58" s="6">
         <v>12</v>
@@ -19190,7 +19179,7 @@
         <v>561</v>
       </c>
       <c r="P59" s="19" t="s">
-        <v>4587</v>
+        <v>4588</v>
       </c>
       <c r="Q59" s="6">
         <v>12</v>
@@ -19249,7 +19238,7 @@
         <v>570</v>
       </c>
       <c r="P60" s="19" t="s">
-        <v>4588</v>
+        <v>4589</v>
       </c>
       <c r="Q60" s="6">
         <v>12</v>
@@ -19308,7 +19297,7 @@
         <v>579</v>
       </c>
       <c r="P61" s="19" t="s">
-        <v>4589</v>
+        <v>4590</v>
       </c>
       <c r="Q61" s="6">
         <v>12</v>
@@ -19367,7 +19356,7 @@
         <v>589</v>
       </c>
       <c r="P62" s="19" t="s">
-        <v>4590</v>
+        <v>4591</v>
       </c>
       <c r="Q62" s="6">
         <v>12</v>
@@ -19426,7 +19415,7 @@
         <v>598</v>
       </c>
       <c r="P63" s="19" t="s">
-        <v>4591</v>
+        <v>4592</v>
       </c>
       <c r="Q63" s="6">
         <v>12</v>
@@ -19485,7 +19474,7 @@
         <v>608</v>
       </c>
       <c r="P64" s="19" t="s">
-        <v>4592</v>
+        <v>4593</v>
       </c>
       <c r="Q64" s="6">
         <v>12</v>
@@ -19542,7 +19531,7 @@
         <v>617</v>
       </c>
       <c r="P65" s="19" t="s">
-        <v>4593</v>
+        <v>4594</v>
       </c>
       <c r="Q65" s="6">
         <v>12</v>
@@ -19601,7 +19590,7 @@
         <v>627</v>
       </c>
       <c r="P66" s="19" t="s">
-        <v>4594</v>
+        <v>4595</v>
       </c>
       <c r="Q66" s="6">
         <v>11</v>
@@ -19660,7 +19649,7 @@
         <v>637</v>
       </c>
       <c r="P67" s="19" t="s">
-        <v>4595</v>
+        <v>4596</v>
       </c>
       <c r="Q67" s="6">
         <v>11</v>
@@ -19719,7 +19708,7 @@
         <v>646</v>
       </c>
       <c r="P68" s="19" t="s">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="Q68" s="6">
         <v>11</v>
@@ -19778,7 +19767,7 @@
         <v>655</v>
       </c>
       <c r="P69" s="19" t="s">
-        <v>4597</v>
+        <v>4598</v>
       </c>
       <c r="Q69" s="6">
         <v>11</v>
@@ -19837,7 +19826,7 @@
         <v>663</v>
       </c>
       <c r="P70" s="19" t="s">
-        <v>4598</v>
+        <v>4599</v>
       </c>
       <c r="Q70" s="6">
         <v>11</v>
@@ -19896,7 +19885,7 @@
         <v>673</v>
       </c>
       <c r="P71" s="19" t="s">
-        <v>4599</v>
+        <v>4600</v>
       </c>
       <c r="Q71" s="6">
         <v>11</v>
@@ -19955,7 +19944,7 @@
         <v>683</v>
       </c>
       <c r="P72" s="19" t="s">
-        <v>4600</v>
+        <v>4601</v>
       </c>
       <c r="Q72" s="6">
         <v>11</v>
@@ -20014,7 +20003,7 @@
         <v>693</v>
       </c>
       <c r="P73" s="19" t="s">
-        <v>4601</v>
+        <v>4602</v>
       </c>
       <c r="Q73" s="6">
         <v>11</v>
@@ -20073,7 +20062,7 @@
         <v>700</v>
       </c>
       <c r="P74" s="19" t="s">
-        <v>4602</v>
+        <v>4603</v>
       </c>
       <c r="Q74" s="6">
         <v>11</v>
@@ -20132,7 +20121,7 @@
         <v>709</v>
       </c>
       <c r="P75" s="19" t="s">
-        <v>4603</v>
+        <v>4604</v>
       </c>
       <c r="Q75" s="6">
         <v>11</v>
@@ -20191,7 +20180,7 @@
         <v>717</v>
       </c>
       <c r="P76" s="19" t="s">
-        <v>4604</v>
+        <v>4605</v>
       </c>
       <c r="Q76" s="6">
         <v>11</v>
@@ -20248,7 +20237,7 @@
         <v>725</v>
       </c>
       <c r="P77" s="19" t="s">
-        <v>4605</v>
+        <v>4606</v>
       </c>
       <c r="Q77" s="6">
         <v>11</v>
@@ -20307,7 +20296,7 @@
         <v>735</v>
       </c>
       <c r="P78" s="19" t="s">
-        <v>4606</v>
+        <v>4607</v>
       </c>
       <c r="Q78" s="6">
         <v>10</v>
@@ -20366,7 +20355,7 @@
         <v>745</v>
       </c>
       <c r="P79" s="19" t="s">
-        <v>4607</v>
+        <v>4608</v>
       </c>
       <c r="Q79" s="6">
         <v>10</v>
@@ -20425,7 +20414,7 @@
         <v>755</v>
       </c>
       <c r="P80" s="19" t="s">
-        <v>4608</v>
+        <v>4609</v>
       </c>
       <c r="Q80" s="6">
         <v>10</v>
@@ -20484,7 +20473,7 @@
         <v>765</v>
       </c>
       <c r="P81" s="19" t="s">
-        <v>4609</v>
+        <v>4610</v>
       </c>
       <c r="Q81" s="6">
         <v>10</v>
@@ -20543,7 +20532,7 @@
         <v>775</v>
       </c>
       <c r="P82" s="19" t="s">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="Q82" s="6">
         <v>10</v>
@@ -20602,7 +20591,7 @@
         <v>783</v>
       </c>
       <c r="P83" s="19" t="s">
-        <v>4611</v>
+        <v>4612</v>
       </c>
       <c r="Q83" s="6">
         <v>10</v>
@@ -20661,7 +20650,7 @@
         <v>793</v>
       </c>
       <c r="P84" s="19" t="s">
-        <v>4612</v>
+        <v>4613</v>
       </c>
       <c r="Q84" s="6">
         <v>10</v>
@@ -20718,7 +20707,7 @@
         <v>802</v>
       </c>
       <c r="P85" s="19" t="s">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="Q85" s="6">
         <v>10</v>
@@ -20777,7 +20766,7 @@
         <v>811</v>
       </c>
       <c r="P86" s="19" t="s">
-        <v>4614</v>
+        <v>4615</v>
       </c>
       <c r="Q86" s="6">
         <v>10</v>
@@ -20836,7 +20825,7 @@
         <v>819</v>
       </c>
       <c r="P87" s="19" t="s">
-        <v>4615</v>
+        <v>4616</v>
       </c>
       <c r="Q87" s="6">
         <v>10</v>
@@ -20895,7 +20884,7 @@
         <v>828</v>
       </c>
       <c r="P88" s="19" t="s">
-        <v>4616</v>
+        <v>4617</v>
       </c>
       <c r="Q88" s="6">
         <v>10</v>
@@ -20954,7 +20943,7 @@
         <v>837</v>
       </c>
       <c r="P89" s="19" t="s">
-        <v>4617</v>
+        <v>4618</v>
       </c>
       <c r="Q89" s="6">
         <v>10</v>
@@ -21013,7 +21002,7 @@
         <v>846</v>
       </c>
       <c r="P90" s="19" t="s">
-        <v>4618</v>
+        <v>4619</v>
       </c>
       <c r="Q90" s="6">
         <v>10</v>
@@ -21072,7 +21061,7 @@
         <v>855</v>
       </c>
       <c r="P91" s="19" t="s">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="Q91" s="6">
         <v>10</v>
@@ -21129,7 +21118,7 @@
         <v>864</v>
       </c>
       <c r="P92" s="19" t="s">
-        <v>4620</v>
+        <v>4621</v>
       </c>
       <c r="Q92" s="6">
         <v>10</v>
@@ -21188,7 +21177,7 @@
         <v>874</v>
       </c>
       <c r="P93" s="19" t="s">
-        <v>4621</v>
+        <v>4622</v>
       </c>
       <c r="Q93" s="6">
         <v>10</v>
@@ -21247,7 +21236,7 @@
         <v>884</v>
       </c>
       <c r="P94" s="19" t="s">
-        <v>4622</v>
+        <v>4623</v>
       </c>
       <c r="Q94" s="6">
         <v>10</v>
@@ -21306,7 +21295,7 @@
         <v>893</v>
       </c>
       <c r="P95" s="19" t="s">
-        <v>4623</v>
+        <v>4624</v>
       </c>
       <c r="Q95" s="6">
         <v>10</v>
@@ -21363,7 +21352,7 @@
         <v>902</v>
       </c>
       <c r="P96" s="19" t="s">
-        <v>4624</v>
+        <v>4625</v>
       </c>
       <c r="Q96" s="6">
         <v>10</v>
@@ -21422,7 +21411,7 @@
         <v>912</v>
       </c>
       <c r="P97" s="19" t="s">
-        <v>4625</v>
+        <v>4626</v>
       </c>
       <c r="Q97" s="6">
         <v>10</v>
@@ -21479,7 +21468,7 @@
         <v>918</v>
       </c>
       <c r="P98" s="19" t="s">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="Q98" s="6">
         <v>10</v>
@@ -21538,7 +21527,7 @@
         <v>928</v>
       </c>
       <c r="P99" s="19" t="s">
-        <v>4627</v>
+        <v>4628</v>
       </c>
       <c r="Q99" s="6">
         <v>10</v>
@@ -21597,7 +21586,7 @@
         <v>938</v>
       </c>
       <c r="P100" s="19" t="s">
-        <v>4628</v>
+        <v>4629</v>
       </c>
       <c r="Q100" s="6">
         <v>10</v>
@@ -21656,7 +21645,7 @@
         <v>947</v>
       </c>
       <c r="P101" s="19" t="s">
-        <v>4629</v>
+        <v>4630</v>
       </c>
       <c r="Q101" s="6">
         <v>10</v>
@@ -21715,7 +21704,7 @@
         <v>955</v>
       </c>
       <c r="P102" s="19" t="s">
-        <v>4630</v>
+        <v>4631</v>
       </c>
       <c r="Q102" s="6">
         <v>10</v>
@@ -21772,7 +21761,7 @@
         <v>963</v>
       </c>
       <c r="P103" s="19" t="s">
-        <v>4631</v>
+        <v>4632</v>
       </c>
       <c r="Q103" s="6">
         <v>10</v>
@@ -21831,7 +21820,7 @@
         <v>972</v>
       </c>
       <c r="P104" s="19" t="s">
-        <v>4632</v>
+        <v>4633</v>
       </c>
       <c r="Q104" s="6">
         <v>10</v>
@@ -21890,7 +21879,7 @@
         <v>982</v>
       </c>
       <c r="P105" s="19" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
       <c r="Q105" s="6">
         <v>10</v>
@@ -21949,7 +21938,7 @@
         <v>992</v>
       </c>
       <c r="P106" s="19" t="s">
-        <v>4634</v>
+        <v>4635</v>
       </c>
       <c r="Q106" s="6">
         <v>10</v>
@@ -22006,7 +21995,7 @@
         <v>1000</v>
       </c>
       <c r="P107" s="19" t="s">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="Q107" s="6">
         <v>10</v>
@@ -22065,7 +22054,7 @@
         <v>1009</v>
       </c>
       <c r="P108" s="19" t="s">
-        <v>4636</v>
+        <v>4637</v>
       </c>
       <c r="Q108" s="6">
         <v>10</v>
@@ -22124,7 +22113,7 @@
         <v>1018</v>
       </c>
       <c r="P109" s="19" t="s">
-        <v>4637</v>
+        <v>4638</v>
       </c>
       <c r="Q109" s="6">
         <v>10</v>
@@ -22183,7 +22172,7 @@
         <v>1028</v>
       </c>
       <c r="P110" s="19" t="s">
-        <v>4638</v>
+        <v>4639</v>
       </c>
       <c r="Q110" s="6">
         <v>10</v>
@@ -22242,7 +22231,7 @@
         <v>1037</v>
       </c>
       <c r="P111" s="19" t="s">
-        <v>4639</v>
+        <v>4640</v>
       </c>
       <c r="Q111" s="6">
         <v>10</v>
@@ -22301,7 +22290,7 @@
         <v>1046</v>
       </c>
       <c r="P112" s="19" t="s">
-        <v>4640</v>
+        <v>4641</v>
       </c>
       <c r="Q112" s="6">
         <v>10</v>
@@ -22360,7 +22349,7 @@
         <v>1055</v>
       </c>
       <c r="P113" s="19" t="s">
-        <v>4641</v>
+        <v>4642</v>
       </c>
       <c r="Q113" s="6">
         <v>10</v>
@@ -22419,7 +22408,7 @@
         <v>1064</v>
       </c>
       <c r="P114" s="19" t="s">
-        <v>4642</v>
+        <v>4643</v>
       </c>
       <c r="Q114" s="6">
         <v>10</v>
@@ -22478,7 +22467,7 @@
         <v>1073</v>
       </c>
       <c r="P115" s="19" t="s">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="Q115" s="6">
         <v>10</v>
@@ -22535,7 +22524,7 @@
         <v>1082</v>
       </c>
       <c r="P116" s="19" t="s">
-        <v>4644</v>
+        <v>4645</v>
       </c>
       <c r="Q116" s="6">
         <v>10</v>
@@ -22594,7 +22583,7 @@
         <v>1090</v>
       </c>
       <c r="P117" s="19" t="s">
-        <v>4645</v>
+        <v>4646</v>
       </c>
       <c r="Q117" s="6">
         <v>10</v>
@@ -22649,7 +22638,7 @@
         <v>1098</v>
       </c>
       <c r="P118" s="19" t="s">
-        <v>4646</v>
+        <v>4647</v>
       </c>
       <c r="Q118" s="6">
         <v>10</v>
@@ -22706,7 +22695,7 @@
         <v>1106</v>
       </c>
       <c r="P119" s="19" t="s">
-        <v>4647</v>
+        <v>4648</v>
       </c>
       <c r="Q119" s="6">
         <v>9</v>
@@ -22765,7 +22754,7 @@
         <v>1116</v>
       </c>
       <c r="P120" s="19" t="s">
-        <v>4648</v>
+        <v>4649</v>
       </c>
       <c r="Q120" s="6">
         <v>9</v>
@@ -22824,7 +22813,7 @@
         <v>1125</v>
       </c>
       <c r="P121" s="19" t="s">
-        <v>4649</v>
+        <v>4650</v>
       </c>
       <c r="Q121" s="6">
         <v>9</v>
@@ -22883,7 +22872,7 @@
         <v>1135</v>
       </c>
       <c r="P122" s="19" t="s">
-        <v>4650</v>
+        <v>4651</v>
       </c>
       <c r="Q122" s="6">
         <v>9</v>
@@ -22942,7 +22931,7 @@
         <v>1144</v>
       </c>
       <c r="P123" s="19" t="s">
-        <v>4651</v>
+        <v>4652</v>
       </c>
       <c r="Q123" s="6">
         <v>9</v>
@@ -23001,7 +22990,7 @@
         <v>1153</v>
       </c>
       <c r="P124" s="19" t="s">
-        <v>4652</v>
+        <v>4653</v>
       </c>
       <c r="Q124" s="6">
         <v>9</v>
@@ -23060,7 +23049,7 @@
         <v>1161</v>
       </c>
       <c r="P125" s="19" t="s">
-        <v>4653</v>
+        <v>4654</v>
       </c>
       <c r="Q125" s="6">
         <v>9</v>
@@ -23119,7 +23108,7 @@
         <v>1171</v>
       </c>
       <c r="P126" s="19" t="s">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="Q126" s="6">
         <v>9</v>
@@ -23178,7 +23167,7 @@
         <v>1181</v>
       </c>
       <c r="P127" s="19" t="s">
-        <v>4655</v>
+        <v>4656</v>
       </c>
       <c r="Q127" s="6">
         <v>8</v>
@@ -23237,7 +23226,7 @@
         <v>1190</v>
       </c>
       <c r="P128" s="19" t="s">
-        <v>4656</v>
+        <v>4657</v>
       </c>
       <c r="Q128" s="6">
         <v>8</v>
@@ -23296,7 +23285,7 @@
         <v>1200</v>
       </c>
       <c r="P129" s="19" t="s">
-        <v>4657</v>
+        <v>4658</v>
       </c>
       <c r="Q129" s="6">
         <v>8</v>
@@ -23355,7 +23344,7 @@
         <v>1210</v>
       </c>
       <c r="P130" s="19" t="s">
-        <v>4658</v>
+        <v>4659</v>
       </c>
       <c r="Q130" s="6">
         <v>8</v>
@@ -23414,7 +23403,7 @@
         <v>1220</v>
       </c>
       <c r="P131" s="19" t="s">
-        <v>4659</v>
+        <v>4660</v>
       </c>
       <c r="Q131" s="6">
         <v>8</v>
@@ -23473,7 +23462,7 @@
         <v>1230</v>
       </c>
       <c r="P132" s="19" t="s">
-        <v>4660</v>
+        <v>4661</v>
       </c>
       <c r="Q132" s="6">
         <v>8</v>
@@ -23532,7 +23521,7 @@
         <v>1240</v>
       </c>
       <c r="P133" s="19" t="s">
-        <v>4661</v>
+        <v>4662</v>
       </c>
       <c r="Q133" s="6">
         <v>8</v>
@@ -23591,7 +23580,7 @@
         <v>1250</v>
       </c>
       <c r="P134" s="19" t="s">
-        <v>4662</v>
+        <v>4663</v>
       </c>
       <c r="Q134" s="6">
         <v>8</v>
@@ -23650,7 +23639,7 @@
         <v>1258</v>
       </c>
       <c r="P135" s="19" t="s">
-        <v>4663</v>
+        <v>4664</v>
       </c>
       <c r="Q135" s="6">
         <v>8</v>
@@ -23709,7 +23698,7 @@
         <v>1267</v>
       </c>
       <c r="P136" s="19" t="s">
-        <v>4664</v>
+        <v>4665</v>
       </c>
       <c r="Q136" s="6">
         <v>8</v>
@@ -23768,7 +23757,7 @@
         <v>1276</v>
       </c>
       <c r="P137" s="19" t="s">
-        <v>4665</v>
+        <v>4666</v>
       </c>
       <c r="Q137" s="6">
         <v>8</v>
@@ -23827,7 +23816,7 @@
         <v>1286</v>
       </c>
       <c r="P138" s="19" t="s">
-        <v>4666</v>
+        <v>4667</v>
       </c>
       <c r="Q138" s="6">
         <v>8</v>
@@ -23886,7 +23875,7 @@
         <v>1296</v>
       </c>
       <c r="P139" s="19" t="s">
-        <v>4667</v>
+        <v>4668</v>
       </c>
       <c r="Q139" s="6">
         <v>8</v>
@@ -23945,7 +23934,7 @@
         <v>1305</v>
       </c>
       <c r="P140" s="19" t="s">
-        <v>4668</v>
+        <v>4669</v>
       </c>
       <c r="Q140" s="6">
         <v>8</v>
@@ -24002,7 +23991,7 @@
         <v>1313</v>
       </c>
       <c r="P141" s="19" t="s">
-        <v>4669</v>
+        <v>4670</v>
       </c>
       <c r="Q141" s="6">
         <v>8</v>
@@ -24061,7 +24050,7 @@
         <v>1322</v>
       </c>
       <c r="P142" s="19" t="s">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="Q142" s="6">
         <v>8</v>
@@ -24120,7 +24109,7 @@
         <v>1330</v>
       </c>
       <c r="P143" s="19" t="s">
-        <v>4671</v>
+        <v>4672</v>
       </c>
       <c r="Q143" s="6">
         <v>8</v>
@@ -24179,7 +24168,7 @@
         <v>1340</v>
       </c>
       <c r="P144" s="19" t="s">
-        <v>4672</v>
+        <v>4673</v>
       </c>
       <c r="Q144" s="6">
         <v>8</v>
@@ -24238,7 +24227,7 @@
         <v>1350</v>
       </c>
       <c r="P145" s="19" t="s">
-        <v>4673</v>
+        <v>4674</v>
       </c>
       <c r="Q145" s="6">
         <v>8</v>
@@ -24297,7 +24286,7 @@
         <v>1358</v>
       </c>
       <c r="P146" s="19" t="s">
-        <v>4674</v>
+        <v>4675</v>
       </c>
       <c r="Q146" s="6">
         <v>8</v>
@@ -24356,7 +24345,7 @@
         <v>1368</v>
       </c>
       <c r="P147" s="19" t="s">
-        <v>4675</v>
+        <v>4676</v>
       </c>
       <c r="Q147" s="6">
         <v>8</v>
@@ -24415,7 +24404,7 @@
         <v>1377</v>
       </c>
       <c r="P148" s="19" t="s">
-        <v>4676</v>
+        <v>4677</v>
       </c>
       <c r="Q148" s="6">
         <v>8</v>
@@ -24474,7 +24463,7 @@
         <v>1387</v>
       </c>
       <c r="P149" s="19" t="s">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="Q149" s="9">
         <v>8</v>
@@ -24533,7 +24522,7 @@
         <v>1396</v>
       </c>
       <c r="P150" s="19" t="s">
-        <v>4678</v>
+        <v>4679</v>
       </c>
       <c r="Q150" s="6">
         <v>8</v>
@@ -24592,7 +24581,7 @@
         <v>1405</v>
       </c>
       <c r="P151" s="19" t="s">
-        <v>4679</v>
+        <v>4680</v>
       </c>
       <c r="Q151" s="6">
         <v>8</v>
@@ -24651,7 +24640,7 @@
         <v>1415</v>
       </c>
       <c r="P152" s="19" t="s">
-        <v>4680</v>
+        <v>4681</v>
       </c>
       <c r="Q152" s="6">
         <v>8</v>
@@ -24710,7 +24699,7 @@
         <v>1424</v>
       </c>
       <c r="P153" s="19" t="s">
-        <v>4681</v>
+        <v>4682</v>
       </c>
       <c r="Q153" s="6">
         <v>8</v>
@@ -24769,7 +24758,7 @@
         <v>1433</v>
       </c>
       <c r="P154" s="19" t="s">
-        <v>4682</v>
+        <v>4683</v>
       </c>
       <c r="Q154" s="9">
         <v>8</v>
@@ -24828,7 +24817,7 @@
         <v>1442</v>
       </c>
       <c r="P155" s="19" t="s">
-        <v>4683</v>
+        <v>4684</v>
       </c>
       <c r="Q155" s="6">
         <v>8</v>
@@ -24887,7 +24876,7 @@
         <v>1451</v>
       </c>
       <c r="P156" s="19" t="s">
-        <v>4684</v>
+        <v>4685</v>
       </c>
       <c r="Q156" s="6">
         <v>8</v>
@@ -24946,7 +24935,7 @@
         <v>1459</v>
       </c>
       <c r="P157" s="19" t="s">
-        <v>4685</v>
+        <v>4686</v>
       </c>
       <c r="Q157" s="12">
         <v>8</v>
@@ -25005,7 +24994,7 @@
         <v>1466</v>
       </c>
       <c r="P158" s="19" t="s">
-        <v>4686</v>
+        <v>4687</v>
       </c>
       <c r="Q158" s="6">
         <v>8</v>
@@ -25064,7 +25053,7 @@
         <v>1475</v>
       </c>
       <c r="P159" s="19" t="s">
-        <v>4687</v>
+        <v>4688</v>
       </c>
       <c r="Q159" s="6">
         <v>8</v>
@@ -25123,7 +25112,7 @@
         <v>1482</v>
       </c>
       <c r="P160" s="19" t="s">
-        <v>4688</v>
+        <v>4689</v>
       </c>
       <c r="Q160" s="6">
         <v>8</v>
@@ -25182,7 +25171,7 @@
         <v>1490</v>
       </c>
       <c r="P161" s="19" t="s">
-        <v>4689</v>
+        <v>4690</v>
       </c>
       <c r="Q161" s="6">
         <v>8</v>
@@ -25241,7 +25230,7 @@
         <v>1498</v>
       </c>
       <c r="P162" s="19" t="s">
-        <v>4690</v>
+        <v>4691</v>
       </c>
       <c r="Q162" s="6">
         <v>8</v>
@@ -25300,7 +25289,7 @@
         <v>1507</v>
       </c>
       <c r="P163" s="19" t="s">
-        <v>4691</v>
+        <v>4692</v>
       </c>
       <c r="Q163" s="6">
         <v>8</v>
@@ -25357,7 +25346,7 @@
         <v>1514</v>
       </c>
       <c r="P164" s="19" t="s">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="Q164" s="6">
         <v>8</v>
@@ -25416,7 +25405,7 @@
         <v>1522</v>
       </c>
       <c r="P165" s="19" t="s">
-        <v>4693</v>
+        <v>4694</v>
       </c>
       <c r="Q165" s="6">
         <v>8</v>
@@ -25475,7 +25464,7 @@
         <v>1531</v>
       </c>
       <c r="P166" s="19" t="s">
-        <v>4694</v>
+        <v>4695</v>
       </c>
       <c r="Q166" s="6">
         <v>8</v>
@@ -25534,7 +25523,7 @@
         <v>1539</v>
       </c>
       <c r="P167" s="19" t="s">
-        <v>4695</v>
+        <v>4696</v>
       </c>
       <c r="Q167" s="6">
         <v>8</v>
@@ -25591,7 +25580,7 @@
         <v>1547</v>
       </c>
       <c r="P168" s="19" t="s">
-        <v>4696</v>
+        <v>4697</v>
       </c>
       <c r="Q168" s="12">
         <v>8</v>
@@ -25650,7 +25639,7 @@
         <v>1556</v>
       </c>
       <c r="P169" s="19" t="s">
-        <v>4697</v>
+        <v>4698</v>
       </c>
       <c r="Q169" s="6">
         <v>8</v>
@@ -25709,7 +25698,7 @@
         <v>1565</v>
       </c>
       <c r="P170" s="19" t="s">
-        <v>4698</v>
+        <v>4699</v>
       </c>
       <c r="Q170" s="6">
         <v>8</v>
@@ -25768,7 +25757,7 @@
         <v>1574</v>
       </c>
       <c r="P171" s="19" t="s">
-        <v>4699</v>
+        <v>4700</v>
       </c>
       <c r="Q171" s="12">
         <v>8</v>
@@ -25827,7 +25816,7 @@
         <v>1584</v>
       </c>
       <c r="P172" s="19" t="s">
-        <v>4700</v>
+        <v>4701</v>
       </c>
       <c r="Q172" s="6">
         <v>8</v>
@@ -25886,7 +25875,7 @@
         <v>1593</v>
       </c>
       <c r="P173" s="19" t="s">
-        <v>4701</v>
+        <v>4702</v>
       </c>
       <c r="Q173" s="6">
         <v>8</v>
@@ -25945,7 +25934,7 @@
         <v>1601</v>
       </c>
       <c r="P174" s="19" t="s">
-        <v>4702</v>
+        <v>4703</v>
       </c>
       <c r="Q174" s="6">
         <v>8</v>
@@ -26004,7 +25993,7 @@
         <v>1611</v>
       </c>
       <c r="P175" s="19" t="s">
-        <v>4703</v>
+        <v>4704</v>
       </c>
       <c r="Q175" s="6">
         <v>8</v>
@@ -26063,7 +26052,7 @@
         <v>1621</v>
       </c>
       <c r="P176" s="19" t="s">
-        <v>4704</v>
+        <v>4705</v>
       </c>
       <c r="Q176" s="6">
         <v>8</v>
@@ -26122,7 +26111,7 @@
         <v>1630</v>
       </c>
       <c r="P177" s="19" t="s">
-        <v>4705</v>
+        <v>4706</v>
       </c>
       <c r="Q177" s="6">
         <v>8</v>
@@ -26179,7 +26168,7 @@
         <v>1638</v>
       </c>
       <c r="P178" s="19" t="s">
-        <v>4706</v>
+        <v>4707</v>
       </c>
       <c r="Q178" s="6">
         <v>8</v>
@@ -26236,7 +26225,7 @@
         <v>1646</v>
       </c>
       <c r="P179" s="19" t="s">
-        <v>4707</v>
+        <v>4708</v>
       </c>
       <c r="Q179" s="6">
         <v>8</v>
@@ -26295,7 +26284,7 @@
         <v>1656</v>
       </c>
       <c r="P180" s="19" t="s">
-        <v>4708</v>
+        <v>4709</v>
       </c>
       <c r="Q180" s="6">
         <v>8</v>
@@ -26352,7 +26341,7 @@
         <v>1664</v>
       </c>
       <c r="P181" s="19" t="s">
-        <v>4709</v>
+        <v>4710</v>
       </c>
       <c r="Q181" s="6">
         <v>8</v>
@@ -26411,7 +26400,7 @@
         <v>1672</v>
       </c>
       <c r="P182" s="19" t="s">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="Q182" s="9">
         <v>8</v>
@@ -26470,7 +26459,7 @@
         <v>1681</v>
       </c>
       <c r="P183" s="19" t="s">
-        <v>4711</v>
+        <v>4712</v>
       </c>
       <c r="Q183" s="6">
         <v>8</v>
@@ -26529,7 +26518,7 @@
         <v>1690</v>
       </c>
       <c r="P184" s="19" t="s">
-        <v>4712</v>
+        <v>4713</v>
       </c>
       <c r="Q184" s="9">
         <v>8</v>
@@ -26588,7 +26577,7 @@
         <v>1698</v>
       </c>
       <c r="P185" s="19" t="s">
-        <v>4713</v>
+        <v>4714</v>
       </c>
       <c r="Q185" s="6">
         <v>8</v>
@@ -26647,7 +26636,7 @@
         <v>1707</v>
       </c>
       <c r="P186" s="19" t="s">
-        <v>4714</v>
+        <v>4715</v>
       </c>
       <c r="Q186" s="6">
         <v>8</v>
@@ -26706,7 +26695,7 @@
         <v>1716</v>
       </c>
       <c r="P187" s="19" t="s">
-        <v>4715</v>
+        <v>4716</v>
       </c>
       <c r="Q187" s="6">
         <v>8</v>
@@ -26765,7 +26754,7 @@
         <v>1726</v>
       </c>
       <c r="P188" s="19" t="s">
-        <v>4716</v>
+        <v>4717</v>
       </c>
       <c r="Q188" s="6">
         <v>8</v>
@@ -26824,7 +26813,7 @@
         <v>1736</v>
       </c>
       <c r="P189" s="19" t="s">
-        <v>4717</v>
+        <v>4718</v>
       </c>
       <c r="Q189" s="6">
         <v>7</v>
@@ -26881,7 +26870,7 @@
         <v>1744</v>
       </c>
       <c r="P190" s="19" t="s">
-        <v>4718</v>
+        <v>4719</v>
       </c>
       <c r="Q190" s="9">
         <v>7</v>
@@ -26940,7 +26929,7 @@
         <v>1753</v>
       </c>
       <c r="P191" s="19" t="s">
-        <v>4719</v>
+        <v>4720</v>
       </c>
       <c r="Q191" s="6">
         <v>7</v>
@@ -26999,7 +26988,7 @@
         <v>1761</v>
       </c>
       <c r="P192" s="19" t="s">
-        <v>4720</v>
+        <v>4721</v>
       </c>
       <c r="Q192" s="6">
         <v>7</v>
@@ -27058,7 +27047,7 @@
         <v>1769</v>
       </c>
       <c r="P193" s="19" t="s">
-        <v>4721</v>
+        <v>4722</v>
       </c>
       <c r="Q193" s="6">
         <v>7</v>
@@ -27117,7 +27106,7 @@
         <v>1777</v>
       </c>
       <c r="P194" s="19" t="s">
-        <v>4722</v>
+        <v>4723</v>
       </c>
       <c r="Q194" s="6">
         <v>7</v>
@@ -27176,7 +27165,7 @@
         <v>1787</v>
       </c>
       <c r="P195" s="19" t="s">
-        <v>4723</v>
+        <v>4724</v>
       </c>
       <c r="Q195" s="6">
         <v>7</v>
@@ -27233,7 +27222,7 @@
         <v>1794</v>
       </c>
       <c r="P196" s="19" t="s">
-        <v>4724</v>
+        <v>4725</v>
       </c>
       <c r="Q196" s="6">
         <v>7</v>
@@ -27292,7 +27281,7 @@
         <v>1803</v>
       </c>
       <c r="P197" s="19" t="s">
-        <v>4725</v>
+        <v>4726</v>
       </c>
       <c r="Q197" s="15">
         <v>7</v>
@@ -27349,7 +27338,7 @@
         <v>1810</v>
       </c>
       <c r="P198" s="19" t="s">
-        <v>4726</v>
+        <v>4727</v>
       </c>
       <c r="Q198" s="6">
         <v>7</v>
@@ -27408,7 +27397,7 @@
         <v>1820</v>
       </c>
       <c r="P199" s="19" t="s">
-        <v>4727</v>
+        <v>4728</v>
       </c>
       <c r="Q199" s="6">
         <v>7</v>
@@ -27465,7 +27454,7 @@
         <v>1828</v>
       </c>
       <c r="P200" s="19" t="s">
-        <v>4728</v>
+        <v>4729</v>
       </c>
       <c r="Q200" s="6">
         <v>7</v>
@@ -27524,7 +27513,7 @@
         <v>1838</v>
       </c>
       <c r="P201" s="19" t="s">
-        <v>4729</v>
+        <v>4730</v>
       </c>
       <c r="Q201" s="6">
         <v>7</v>
@@ -27583,7 +27572,7 @@
         <v>1846</v>
       </c>
       <c r="P202" s="19" t="s">
-        <v>4730</v>
+        <v>4731</v>
       </c>
       <c r="Q202" s="6">
         <v>7</v>
@@ -27642,7 +27631,7 @@
         <v>1856</v>
       </c>
       <c r="P203" s="19" t="s">
-        <v>4731</v>
+        <v>4732</v>
       </c>
       <c r="Q203" s="6">
         <v>7</v>
@@ -27701,7 +27690,7 @@
         <v>1866</v>
       </c>
       <c r="P204" s="19" t="s">
-        <v>4732</v>
+        <v>4733</v>
       </c>
       <c r="Q204" s="6">
         <v>7</v>
@@ -27760,7 +27749,7 @@
         <v>1876</v>
       </c>
       <c r="P205" s="19" t="s">
-        <v>4733</v>
+        <v>4734</v>
       </c>
       <c r="Q205" s="6">
         <v>7</v>
@@ -27819,7 +27808,7 @@
         <v>1885</v>
       </c>
       <c r="P206" s="19" t="s">
-        <v>4734</v>
+        <v>4735</v>
       </c>
       <c r="Q206" s="6">
         <v>6</v>
@@ -27876,7 +27865,7 @@
         <v>1893</v>
       </c>
       <c r="P207" s="19" t="s">
-        <v>4735</v>
+        <v>4736</v>
       </c>
       <c r="Q207" s="9">
         <v>6</v>
@@ -27935,7 +27924,7 @@
         <v>1903</v>
       </c>
       <c r="P208" s="19" t="s">
-        <v>4736</v>
+        <v>4737</v>
       </c>
       <c r="Q208" s="6">
         <v>6</v>
@@ -27994,7 +27983,7 @@
         <v>1912</v>
       </c>
       <c r="P209" s="19" t="s">
-        <v>4737</v>
+        <v>4738</v>
       </c>
       <c r="Q209" s="6">
         <v>6</v>
@@ -28053,7 +28042,7 @@
         <v>1921</v>
       </c>
       <c r="P210" s="19" t="s">
-        <v>4738</v>
+        <v>4739</v>
       </c>
       <c r="Q210" s="6">
         <v>6</v>
@@ -28110,7 +28099,7 @@
         <v>1930</v>
       </c>
       <c r="P211" s="19" t="s">
-        <v>4739</v>
+        <v>4740</v>
       </c>
       <c r="Q211" s="12">
         <v>6</v>
@@ -28167,7 +28156,7 @@
         <v>1938</v>
       </c>
       <c r="P212" s="19" t="s">
-        <v>4740</v>
+        <v>4741</v>
       </c>
       <c r="Q212" s="6">
         <v>6</v>
@@ -28224,7 +28213,7 @@
         <v>1946</v>
       </c>
       <c r="P213" s="19" t="s">
-        <v>4741</v>
+        <v>4742</v>
       </c>
       <c r="Q213" s="6">
         <v>6</v>
@@ -28281,7 +28270,7 @@
         <v>1952</v>
       </c>
       <c r="P214" s="19" t="s">
-        <v>4742</v>
+        <v>4743</v>
       </c>
       <c r="Q214" s="6">
         <v>6</v>
@@ -28340,7 +28329,7 @@
         <v>1962</v>
       </c>
       <c r="P215" s="19" t="s">
-        <v>4743</v>
+        <v>4744</v>
       </c>
       <c r="Q215" s="6">
         <v>6</v>
@@ -28397,7 +28386,7 @@
         <v>1968</v>
       </c>
       <c r="P216" s="19" t="s">
-        <v>4744</v>
+        <v>4745</v>
       </c>
       <c r="Q216" s="6">
         <v>6</v>
@@ -28454,7 +28443,7 @@
         <v>1976</v>
       </c>
       <c r="P217" s="19" t="s">
-        <v>4745</v>
+        <v>4746</v>
       </c>
       <c r="Q217" s="6">
         <v>6</v>
@@ -28513,7 +28502,7 @@
         <v>1985</v>
       </c>
       <c r="P218" s="19" t="s">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="Q218" s="9">
         <v>6</v>
@@ -28572,7 +28561,7 @@
         <v>1995</v>
       </c>
       <c r="P219" s="19" t="s">
-        <v>4747</v>
+        <v>4748</v>
       </c>
       <c r="Q219" s="6">
         <v>6</v>
@@ -28629,7 +28618,7 @@
         <v>2001</v>
       </c>
       <c r="P220" s="19" t="s">
-        <v>4748</v>
+        <v>4749</v>
       </c>
       <c r="Q220" s="6">
         <v>6</v>
@@ -28688,7 +28677,7 @@
         <v>2010</v>
       </c>
       <c r="P221" s="19" t="s">
-        <v>4749</v>
+        <v>4750</v>
       </c>
       <c r="Q221" s="6">
         <v>6</v>
@@ -28747,7 +28736,7 @@
         <v>2020</v>
       </c>
       <c r="P222" s="19" t="s">
-        <v>4750</v>
+        <v>4751</v>
       </c>
       <c r="Q222" s="6">
         <v>6</v>
@@ -28806,7 +28795,7 @@
         <v>2028</v>
       </c>
       <c r="P223" s="19" t="s">
-        <v>4751</v>
+        <v>4752</v>
       </c>
       <c r="Q223" s="6">
         <v>6</v>
@@ -28865,7 +28854,7 @@
         <v>2038</v>
       </c>
       <c r="P224" s="19" t="s">
-        <v>4752</v>
+        <v>4753</v>
       </c>
       <c r="Q224" s="6">
         <v>6</v>
@@ -28924,7 +28913,7 @@
         <v>2048</v>
       </c>
       <c r="P225" s="19" t="s">
-        <v>4753</v>
+        <v>4754</v>
       </c>
       <c r="Q225" s="6">
         <v>6</v>
@@ -28983,7 +28972,7 @@
         <v>2057</v>
       </c>
       <c r="P226" s="19" t="s">
-        <v>4754</v>
+        <v>4755</v>
       </c>
       <c r="Q226" s="6">
         <v>6</v>
@@ -29042,7 +29031,7 @@
         <v>2066</v>
       </c>
       <c r="P227" s="19" t="s">
-        <v>4755</v>
+        <v>4756</v>
       </c>
       <c r="Q227" s="6">
         <v>6</v>
@@ -29101,7 +29090,7 @@
         <v>2073</v>
       </c>
       <c r="P228" s="19" t="s">
-        <v>4756</v>
+        <v>4757</v>
       </c>
       <c r="Q228" s="6">
         <v>6</v>
@@ -29160,7 +29149,7 @@
         <v>2081</v>
       </c>
       <c r="P229" s="19" t="s">
-        <v>4757</v>
+        <v>4758</v>
       </c>
       <c r="Q229" s="6">
         <v>6</v>
@@ -29217,7 +29206,7 @@
         <v>2089</v>
       </c>
       <c r="P230" s="19" t="s">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="Q230" s="6">
         <v>6</v>
@@ -29276,7 +29265,7 @@
         <v>2097</v>
       </c>
       <c r="P231" s="19" t="s">
-        <v>4759</v>
+        <v>4760</v>
       </c>
       <c r="Q231" s="6">
         <v>6</v>
@@ -29333,7 +29322,7 @@
         <v>2105</v>
       </c>
       <c r="P232" s="19" t="s">
-        <v>4760</v>
+        <v>4761</v>
       </c>
       <c r="Q232" s="15">
         <v>6</v>
@@ -29390,7 +29379,7 @@
         <v>2112</v>
       </c>
       <c r="P233" s="19" t="s">
-        <v>4761</v>
+        <v>4762</v>
       </c>
       <c r="Q233" s="18">
         <v>6</v>
@@ -29449,7 +29438,7 @@
         <v>2120</v>
       </c>
       <c r="P234" s="19" t="s">
-        <v>4762</v>
+        <v>4763</v>
       </c>
       <c r="Q234" s="6">
         <v>6</v>
@@ -29508,7 +29497,7 @@
         <v>2129</v>
       </c>
       <c r="P235" s="19" t="s">
-        <v>4763</v>
+        <v>4764</v>
       </c>
       <c r="Q235" s="6">
         <v>6</v>
@@ -29565,7 +29554,7 @@
         <v>2137</v>
       </c>
       <c r="P236" s="19" t="s">
-        <v>4764</v>
+        <v>4765</v>
       </c>
       <c r="Q236" s="6">
         <v>6</v>
@@ -29624,7 +29613,7 @@
         <v>2144</v>
       </c>
       <c r="P237" s="19" t="s">
-        <v>4765</v>
+        <v>4766</v>
       </c>
       <c r="Q237" s="6">
         <v>6</v>
@@ -29683,7 +29672,7 @@
         <v>2152</v>
       </c>
       <c r="P238" s="19" t="s">
-        <v>4766</v>
+        <v>4767</v>
       </c>
       <c r="Q238" s="6">
         <v>6</v>
@@ -29742,7 +29731,7 @@
         <v>2161</v>
       </c>
       <c r="P239" s="19" t="s">
-        <v>4767</v>
+        <v>4768</v>
       </c>
       <c r="Q239" s="6">
         <v>6</v>
@@ -29801,7 +29790,7 @@
         <v>2170</v>
       </c>
       <c r="P240" s="19" t="s">
-        <v>4768</v>
+        <v>4769</v>
       </c>
       <c r="Q240" s="6">
         <v>6</v>
@@ -29860,7 +29849,7 @@
         <v>2179</v>
       </c>
       <c r="P241" s="19" t="s">
-        <v>4769</v>
+        <v>4770</v>
       </c>
       <c r="Q241" s="6">
         <v>6</v>
@@ -29915,7 +29904,7 @@
         <v>2186</v>
       </c>
       <c r="P242" s="19" t="s">
-        <v>4770</v>
+        <v>4771</v>
       </c>
       <c r="Q242" s="6">
         <v>6</v>
@@ -29974,7 +29963,7 @@
         <v>2196</v>
       </c>
       <c r="P243" s="19" t="s">
-        <v>4771</v>
+        <v>4772</v>
       </c>
       <c r="Q243" s="6">
         <v>6</v>
@@ -30031,7 +30020,7 @@
         <v>2204</v>
       </c>
       <c r="P244" s="19" t="s">
-        <v>4772</v>
+        <v>4773</v>
       </c>
       <c r="Q244" s="6">
         <v>6</v>
@@ -30090,7 +30079,7 @@
         <v>2211</v>
       </c>
       <c r="P245" s="19" t="s">
-        <v>4773</v>
+        <v>4774</v>
       </c>
       <c r="Q245" s="9">
         <v>6</v>
@@ -30149,7 +30138,7 @@
         <v>2220</v>
       </c>
       <c r="P246" s="19" t="s">
-        <v>4774</v>
+        <v>4775</v>
       </c>
       <c r="Q246" s="15">
         <v>6</v>
@@ -30208,7 +30197,7 @@
         <v>2228</v>
       </c>
       <c r="P247" s="19" t="s">
-        <v>4775</v>
+        <v>4776</v>
       </c>
       <c r="Q247" s="6">
         <v>6</v>
@@ -30267,7 +30256,7 @@
         <v>2238</v>
       </c>
       <c r="P248" s="19" t="s">
-        <v>4776</v>
+        <v>4777</v>
       </c>
       <c r="Q248" s="6">
         <v>6</v>
@@ -30324,7 +30313,7 @@
         <v>2246</v>
       </c>
       <c r="P249" s="19" t="s">
-        <v>4777</v>
+        <v>4778</v>
       </c>
       <c r="Q249" s="6">
         <v>6</v>
@@ -30383,7 +30372,7 @@
         <v>2256</v>
       </c>
       <c r="P250" s="19" t="s">
-        <v>4778</v>
+        <v>4779</v>
       </c>
       <c r="Q250" s="6">
         <v>6</v>
@@ -30442,7 +30431,7 @@
         <v>2264</v>
       </c>
       <c r="P251" s="19" t="s">
-        <v>4779</v>
+        <v>4780</v>
       </c>
       <c r="Q251" s="6">
         <v>6</v>
@@ -30501,7 +30490,7 @@
         <v>2273</v>
       </c>
       <c r="P252" s="19" t="s">
-        <v>4780</v>
+        <v>4781</v>
       </c>
       <c r="Q252" s="6">
         <v>6</v>
@@ -30560,7 +30549,7 @@
         <v>2282</v>
       </c>
       <c r="P253" s="19" t="s">
-        <v>4781</v>
+        <v>4782</v>
       </c>
       <c r="Q253" s="6">
         <v>6</v>
@@ -30619,7 +30608,7 @@
         <v>2292</v>
       </c>
       <c r="P254" s="19" t="s">
-        <v>4782</v>
+        <v>4783</v>
       </c>
       <c r="Q254" s="6">
         <v>6</v>
@@ -30676,7 +30665,7 @@
         <v>2299</v>
       </c>
       <c r="P255" s="19" t="s">
-        <v>4783</v>
+        <v>4784</v>
       </c>
       <c r="Q255" s="6">
         <v>6</v>
@@ -30735,7 +30724,7 @@
         <v>2308</v>
       </c>
       <c r="P256" s="19" t="s">
-        <v>4784</v>
+        <v>4785</v>
       </c>
       <c r="Q256" s="6">
         <v>6</v>
@@ -30794,7 +30783,7 @@
         <v>2317</v>
       </c>
       <c r="P257" s="19" t="s">
-        <v>4785</v>
+        <v>4786</v>
       </c>
       <c r="Q257" s="6">
         <v>6</v>
@@ -30853,7 +30842,7 @@
         <v>2326</v>
       </c>
       <c r="P258" s="19" t="s">
-        <v>4786</v>
+        <v>4787</v>
       </c>
       <c r="Q258" s="6">
         <v>5</v>
@@ -30912,7 +30901,7 @@
         <v>2334</v>
       </c>
       <c r="P259" s="19" t="s">
-        <v>4787</v>
+        <v>4788</v>
       </c>
       <c r="Q259" s="6">
         <v>5</v>
@@ -30971,7 +30960,7 @@
         <v>2343</v>
       </c>
       <c r="P260" s="19" t="s">
-        <v>4788</v>
+        <v>4789</v>
       </c>
       <c r="Q260" s="6">
         <v>5</v>
@@ -31030,7 +31019,7 @@
         <v>2352</v>
       </c>
       <c r="P261" s="19" t="s">
-        <v>4789</v>
+        <v>4790</v>
       </c>
       <c r="Q261" s="6">
         <v>5</v>
@@ -31087,7 +31076,7 @@
         <v>2361</v>
       </c>
       <c r="P262" s="19" t="s">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="Q262" s="6">
         <v>5</v>
@@ -31146,7 +31135,7 @@
         <v>2370</v>
       </c>
       <c r="P263" s="19" t="s">
-        <v>4791</v>
+        <v>4792</v>
       </c>
       <c r="Q263" s="6">
         <v>5</v>
@@ -31205,7 +31194,7 @@
         <v>2380</v>
       </c>
       <c r="P264" s="19" t="s">
-        <v>4792</v>
+        <v>4793</v>
       </c>
       <c r="Q264" s="6">
         <v>5</v>
@@ -31262,7 +31251,7 @@
         <v>2389</v>
       </c>
       <c r="P265" s="19" t="s">
-        <v>4793</v>
+        <v>4794</v>
       </c>
       <c r="Q265" s="18">
         <v>5</v>
@@ -31319,7 +31308,7 @@
         <v>2397</v>
       </c>
       <c r="P266" s="19" t="s">
-        <v>4794</v>
+        <v>4795</v>
       </c>
       <c r="Q266" s="6">
         <v>5</v>
@@ -31378,7 +31367,7 @@
         <v>2407</v>
       </c>
       <c r="P267" s="19" t="s">
-        <v>4795</v>
+        <v>4796</v>
       </c>
       <c r="Q267" s="6">
         <v>4</v>
@@ -31437,7 +31426,7 @@
         <v>2416</v>
       </c>
       <c r="P268" s="19" t="s">
-        <v>4796</v>
+        <v>4797</v>
       </c>
       <c r="Q268" s="6">
         <v>4</v>
@@ -31496,7 +31485,7 @@
         <v>2425</v>
       </c>
       <c r="P269" s="19" t="s">
-        <v>4797</v>
+        <v>4798</v>
       </c>
       <c r="Q269" s="6">
         <v>4</v>
@@ -31555,7 +31544,7 @@
         <v>2435</v>
       </c>
       <c r="P270" s="19" t="s">
-        <v>4798</v>
+        <v>4799</v>
       </c>
       <c r="Q270" s="6">
         <v>4</v>
@@ -31614,7 +31603,7 @@
         <v>2445</v>
       </c>
       <c r="P271" s="19" t="s">
-        <v>4799</v>
+        <v>4800</v>
       </c>
       <c r="Q271" s="6">
         <v>4</v>
@@ -31671,7 +31660,7 @@
         <v>2454</v>
       </c>
       <c r="P272" s="19" t="s">
-        <v>4800</v>
+        <v>4801</v>
       </c>
       <c r="Q272" s="6">
         <v>4</v>
@@ -31730,7 +31719,7 @@
         <v>2464</v>
       </c>
       <c r="P273" s="19" t="s">
-        <v>4801</v>
+        <v>4802</v>
       </c>
       <c r="Q273" s="6">
         <v>4</v>
@@ -31789,7 +31778,7 @@
         <v>2473</v>
       </c>
       <c r="P274" s="19" t="s">
-        <v>4802</v>
+        <v>4803</v>
       </c>
       <c r="Q274" s="6">
         <v>4</v>
@@ -31848,7 +31837,7 @@
         <v>2482</v>
       </c>
       <c r="P275" s="19" t="s">
-        <v>4803</v>
+        <v>4804</v>
       </c>
       <c r="Q275" s="6">
         <v>4</v>
@@ -31907,7 +31896,7 @@
         <v>2490</v>
       </c>
       <c r="P276" s="19" t="s">
-        <v>4804</v>
+        <v>4805</v>
       </c>
       <c r="Q276" s="6">
         <v>4</v>
@@ -31966,7 +31955,7 @@
         <v>2500</v>
       </c>
       <c r="P277" s="19" t="s">
-        <v>4805</v>
+        <v>4806</v>
       </c>
       <c r="Q277" s="6">
         <v>4</v>
@@ -32025,7 +32014,7 @@
         <v>2510</v>
       </c>
       <c r="P278" s="19" t="s">
-        <v>4806</v>
+        <v>4807</v>
       </c>
       <c r="Q278" s="15">
         <v>4</v>
@@ -32084,7 +32073,7 @@
         <v>2519</v>
       </c>
       <c r="P279" s="19" t="s">
-        <v>4807</v>
+        <v>4808</v>
       </c>
       <c r="Q279" s="6">
         <v>4</v>
@@ -32143,7 +32132,7 @@
         <v>2529</v>
       </c>
       <c r="P280" s="19" t="s">
-        <v>4808</v>
+        <v>4809</v>
       </c>
       <c r="Q280" s="6">
         <v>4</v>
@@ -32202,7 +32191,7 @@
         <v>2537</v>
       </c>
       <c r="P281" s="19" t="s">
-        <v>4809</v>
+        <v>4810</v>
       </c>
       <c r="Q281" s="6">
         <v>4</v>
@@ -32261,7 +32250,7 @@
         <v>2545</v>
       </c>
       <c r="P282" s="19" t="s">
-        <v>4810</v>
+        <v>4811</v>
       </c>
       <c r="Q282" s="6">
         <v>4</v>
@@ -32318,7 +32307,7 @@
         <v>2552</v>
       </c>
       <c r="P283" s="19" t="s">
-        <v>4811</v>
+        <v>4812</v>
       </c>
       <c r="Q283" s="6">
         <v>4</v>
@@ -32377,7 +32366,7 @@
         <v>2560</v>
       </c>
       <c r="P284" s="19" t="s">
-        <v>4812</v>
+        <v>4813</v>
       </c>
       <c r="Q284" s="6">
         <v>4</v>
@@ -32436,7 +32425,7 @@
         <v>2569</v>
       </c>
       <c r="P285" s="19" t="s">
-        <v>4813</v>
+        <v>4814</v>
       </c>
       <c r="Q285" s="6">
         <v>4</v>
@@ -32493,7 +32482,7 @@
         <v>2577</v>
       </c>
       <c r="P286" s="19" t="s">
-        <v>4814</v>
+        <v>4815</v>
       </c>
       <c r="Q286" s="6">
         <v>4</v>
@@ -32552,7 +32541,7 @@
         <v>2586</v>
       </c>
       <c r="P287" s="19" t="s">
-        <v>4815</v>
+        <v>4816</v>
       </c>
       <c r="Q287" s="6">
         <v>4</v>
@@ -32611,7 +32600,7 @@
         <v>2595</v>
       </c>
       <c r="P288" s="19" t="s">
-        <v>4816</v>
+        <v>4817</v>
       </c>
       <c r="Q288" s="6">
         <v>4</v>
@@ -32668,7 +32657,7 @@
         <v>2602</v>
       </c>
       <c r="P289" s="19" t="s">
-        <v>4817</v>
+        <v>4818</v>
       </c>
       <c r="Q289" s="6">
         <v>4</v>
@@ -32727,7 +32716,7 @@
         <v>2611</v>
       </c>
       <c r="P290" s="19" t="s">
-        <v>4818</v>
+        <v>4819</v>
       </c>
       <c r="Q290" s="6">
         <v>4</v>
@@ -32786,7 +32775,7 @@
         <v>2619</v>
       </c>
       <c r="P291" s="19" t="s">
-        <v>4819</v>
+        <v>4820</v>
       </c>
       <c r="Q291" s="6">
         <v>4</v>
@@ -32843,7 +32832,7 @@
         <v>2626</v>
       </c>
       <c r="P292" s="19" t="s">
-        <v>4820</v>
+        <v>4821</v>
       </c>
       <c r="Q292" s="6">
         <v>4</v>
@@ -32900,7 +32889,7 @@
         <v>2633</v>
       </c>
       <c r="P293" s="19" t="s">
-        <v>4821</v>
+        <v>4822</v>
       </c>
       <c r="Q293" s="6">
         <v>4</v>
@@ -32959,7 +32948,7 @@
         <v>2641</v>
       </c>
       <c r="P294" s="19" t="s">
-        <v>4822</v>
+        <v>4823</v>
       </c>
       <c r="Q294" s="6">
         <v>4</v>
@@ -33018,7 +33007,7 @@
         <v>2650</v>
       </c>
       <c r="P295" s="19" t="s">
-        <v>4823</v>
+        <v>4824</v>
       </c>
       <c r="Q295" s="6">
         <v>4</v>
@@ -33077,7 +33066,7 @@
         <v>2659</v>
       </c>
       <c r="P296" s="19" t="s">
-        <v>4824</v>
+        <v>4825</v>
       </c>
       <c r="Q296" s="6">
         <v>4</v>
@@ -33134,7 +33123,7 @@
         <v>2667</v>
       </c>
       <c r="P297" s="19" t="s">
-        <v>4825</v>
+        <v>4826</v>
       </c>
       <c r="Q297" s="6">
         <v>4</v>
@@ -33193,7 +33182,7 @@
         <v>2676</v>
       </c>
       <c r="P298" s="19" t="s">
-        <v>4826</v>
+        <v>4827</v>
       </c>
       <c r="Q298" s="6">
         <v>4</v>
@@ -33252,7 +33241,7 @@
         <v>2685</v>
       </c>
       <c r="P299" s="19" t="s">
-        <v>4827</v>
+        <v>4828</v>
       </c>
       <c r="Q299" s="6">
         <v>4</v>
@@ -33307,7 +33296,7 @@
         <v>2692</v>
       </c>
       <c r="P300" s="19" t="s">
-        <v>4828</v>
+        <v>4829</v>
       </c>
       <c r="Q300" s="6">
         <v>4</v>
@@ -33366,7 +33355,7 @@
         <v>2700</v>
       </c>
       <c r="P301" s="19" t="s">
-        <v>4829</v>
+        <v>4830</v>
       </c>
       <c r="Q301" s="6">
         <v>4</v>
@@ -33423,7 +33412,7 @@
         <v>2708</v>
       </c>
       <c r="P302" s="19" t="s">
-        <v>4830</v>
+        <v>4831</v>
       </c>
       <c r="Q302" s="6">
         <v>4</v>
@@ -33480,7 +33469,7 @@
         <v>2715</v>
       </c>
       <c r="P303" s="19" t="s">
-        <v>4831</v>
+        <v>4832</v>
       </c>
       <c r="Q303" s="6">
         <v>4</v>
@@ -33539,7 +33528,7 @@
         <v>2724</v>
       </c>
       <c r="P304" s="19" t="s">
-        <v>4832</v>
+        <v>4833</v>
       </c>
       <c r="Q304" s="6">
         <v>4</v>
@@ -33598,7 +33587,7 @@
         <v>2733</v>
       </c>
       <c r="P305" s="19" t="s">
-        <v>4833</v>
+        <v>4834</v>
       </c>
       <c r="Q305" s="6">
         <v>4</v>
@@ -33657,7 +33646,7 @@
         <v>2743</v>
       </c>
       <c r="P306" s="19" t="s">
-        <v>4834</v>
+        <v>4835</v>
       </c>
       <c r="Q306" s="6">
         <v>4</v>
@@ -33716,7 +33705,7 @@
         <v>2752</v>
       </c>
       <c r="P307" s="19" t="s">
-        <v>4835</v>
+        <v>4836</v>
       </c>
       <c r="Q307" s="6">
         <v>4</v>
@@ -33775,7 +33764,7 @@
         <v>2762</v>
       </c>
       <c r="P308" s="19" t="s">
-        <v>4836</v>
+        <v>4837</v>
       </c>
       <c r="Q308" s="6">
         <v>4</v>
@@ -33832,7 +33821,7 @@
         <v>2770</v>
       </c>
       <c r="P309" s="19" t="s">
-        <v>4837</v>
+        <v>4838</v>
       </c>
       <c r="Q309" s="6">
         <v>4</v>
@@ -33889,7 +33878,7 @@
         <v>2778</v>
       </c>
       <c r="P310" s="19" t="s">
-        <v>4838</v>
+        <v>4839</v>
       </c>
       <c r="Q310" s="6">
         <v>4</v>
@@ -33948,7 +33937,7 @@
         <v>2788</v>
       </c>
       <c r="P311" s="19" t="s">
-        <v>4839</v>
+        <v>4840</v>
       </c>
       <c r="Q311" s="6">
         <v>4</v>
@@ -34005,7 +33994,7 @@
         <v>2796</v>
       </c>
       <c r="P312" s="19" t="s">
-        <v>4840</v>
+        <v>4841</v>
       </c>
       <c r="Q312" s="6">
         <v>4</v>
@@ -34064,7 +34053,7 @@
         <v>2806</v>
       </c>
       <c r="P313" s="19" t="s">
-        <v>4841</v>
+        <v>4842</v>
       </c>
       <c r="Q313" s="6">
         <v>4</v>
@@ -34123,7 +34112,7 @@
         <v>2816</v>
       </c>
       <c r="P314" s="19" t="s">
-        <v>4842</v>
+        <v>4843</v>
       </c>
       <c r="Q314" s="6">
         <v>4</v>
@@ -34182,7 +34171,7 @@
         <v>2825</v>
       </c>
       <c r="P315" s="19" t="s">
-        <v>4843</v>
+        <v>4844</v>
       </c>
       <c r="Q315" s="6">
         <v>4</v>
@@ -34241,7 +34230,7 @@
         <v>2834</v>
       </c>
       <c r="P316" s="19" t="s">
-        <v>4844</v>
+        <v>4845</v>
       </c>
       <c r="Q316" s="6">
         <v>4</v>
@@ -34300,7 +34289,7 @@
         <v>2844</v>
       </c>
       <c r="P317" s="19" t="s">
-        <v>4845</v>
+        <v>4846</v>
       </c>
       <c r="Q317" s="6">
         <v>3</v>
@@ -34359,7 +34348,7 @@
         <v>2854</v>
       </c>
       <c r="P318" s="19" t="s">
-        <v>4846</v>
+        <v>4847</v>
       </c>
       <c r="Q318" s="6">
         <v>3</v>
@@ -34418,7 +34407,7 @@
         <v>2863</v>
       </c>
       <c r="P319" s="19" t="s">
-        <v>4847</v>
+        <v>4848</v>
       </c>
       <c r="Q319" s="6">
         <v>3</v>
@@ -34477,7 +34466,7 @@
         <v>2871</v>
       </c>
       <c r="P320" s="19" t="s">
-        <v>4848</v>
+        <v>4849</v>
       </c>
       <c r="Q320" s="6">
         <v>3</v>
@@ -34536,7 +34525,7 @@
         <v>2880</v>
       </c>
       <c r="P321" s="19" t="s">
-        <v>4849</v>
+        <v>4850</v>
       </c>
       <c r="Q321" s="6">
         <v>3</v>
@@ -34595,7 +34584,7 @@
         <v>2888</v>
       </c>
       <c r="P322" s="19" t="s">
-        <v>4850</v>
+        <v>4851</v>
       </c>
       <c r="Q322" s="6">
         <v>3</v>
@@ -34654,7 +34643,7 @@
         <v>2897</v>
       </c>
       <c r="P323" s="19" t="s">
-        <v>4851</v>
+        <v>4852</v>
       </c>
       <c r="Q323" s="6">
         <v>3</v>
@@ -34713,7 +34702,7 @@
         <v>2906</v>
       </c>
       <c r="P324" s="19" t="s">
-        <v>4852</v>
+        <v>4853</v>
       </c>
       <c r="Q324" s="6">
         <v>2</v>
@@ -34772,7 +34761,7 @@
         <v>2916</v>
       </c>
       <c r="P325" s="19" t="s">
-        <v>4853</v>
+        <v>4854</v>
       </c>
       <c r="Q325" s="6">
         <v>2</v>
@@ -34831,7 +34820,7 @@
         <v>2925</v>
       </c>
       <c r="P326" s="19" t="s">
-        <v>4854</v>
+        <v>4855</v>
       </c>
       <c r="Q326" s="6">
         <v>2</v>
@@ -34890,7 +34879,7 @@
         <v>2933</v>
       </c>
       <c r="P327" s="19" t="s">
-        <v>4855</v>
+        <v>4856</v>
       </c>
       <c r="Q327" s="6">
         <v>2</v>
@@ -34949,7 +34938,7 @@
         <v>2942</v>
       </c>
       <c r="P328" s="19" t="s">
-        <v>4856</v>
+        <v>4857</v>
       </c>
       <c r="Q328" s="6">
         <v>2</v>
@@ -35008,7 +34997,7 @@
         <v>2950</v>
       </c>
       <c r="P329" s="19" t="s">
-        <v>4857</v>
+        <v>4858</v>
       </c>
       <c r="Q329" s="6">
         <v>2</v>
@@ -35067,7 +35056,7 @@
         <v>2960</v>
       </c>
       <c r="P330" s="19" t="s">
-        <v>4858</v>
+        <v>4859</v>
       </c>
       <c r="Q330" s="6">
         <v>2</v>
@@ -35126,7 +35115,7 @@
         <v>2970</v>
       </c>
       <c r="P331" s="19" t="s">
-        <v>4859</v>
+        <v>4860</v>
       </c>
       <c r="Q331" s="6">
         <v>2</v>
@@ -35183,7 +35172,7 @@
         <v>2979</v>
       </c>
       <c r="P332" s="19" t="s">
-        <v>4860</v>
+        <v>4861</v>
       </c>
       <c r="Q332" s="15">
         <v>2</v>
@@ -35242,7 +35231,7 @@
         <v>2988</v>
       </c>
       <c r="P333" s="19" t="s">
-        <v>4861</v>
+        <v>4862</v>
       </c>
       <c r="Q333" s="6">
         <v>2</v>
@@ -35301,7 +35290,7 @@
         <v>2997</v>
       </c>
       <c r="P334" s="19" t="s">
-        <v>4862</v>
+        <v>4863</v>
       </c>
       <c r="Q334" s="6">
         <v>2</v>
@@ -35360,7 +35349,7 @@
         <v>3005</v>
       </c>
       <c r="P335" s="19" t="s">
-        <v>4863</v>
+        <v>4864</v>
       </c>
       <c r="Q335" s="6">
         <v>2</v>
@@ -35419,7 +35408,7 @@
         <v>3013</v>
       </c>
       <c r="P336" s="19" t="s">
-        <v>4864</v>
+        <v>4865</v>
       </c>
       <c r="Q336" s="6">
         <v>2</v>
@@ -35478,7 +35467,7 @@
         <v>3023</v>
       </c>
       <c r="P337" s="19" t="s">
-        <v>4865</v>
+        <v>4866</v>
       </c>
       <c r="Q337" s="6">
         <v>2</v>
@@ -35535,7 +35524,7 @@
         <v>3031</v>
       </c>
       <c r="P338" s="19" t="s">
-        <v>4866</v>
+        <v>4867</v>
       </c>
       <c r="Q338" s="6">
         <v>2</v>
@@ -35594,7 +35583,7 @@
         <v>3041</v>
       </c>
       <c r="P339" s="19" t="s">
-        <v>4867</v>
+        <v>4868</v>
       </c>
       <c r="Q339" s="6">
         <v>2</v>
@@ -35651,7 +35640,7 @@
         <v>3049</v>
       </c>
       <c r="P340" s="19" t="s">
-        <v>4868</v>
+        <v>4869</v>
       </c>
       <c r="Q340" s="6">
         <v>2</v>
@@ -35710,7 +35699,7 @@
         <v>3059</v>
       </c>
       <c r="P341" s="19" t="s">
-        <v>4869</v>
+        <v>4870</v>
       </c>
       <c r="Q341" s="6">
         <v>2</v>
@@ -35769,7 +35758,7 @@
         <v>3068</v>
       </c>
       <c r="P342" s="19" t="s">
-        <v>4870</v>
+        <v>4871</v>
       </c>
       <c r="Q342" s="6">
         <v>2</v>
@@ -35828,7 +35817,7 @@
         <v>3077</v>
       </c>
       <c r="P343" s="19" t="s">
-        <v>4871</v>
+        <v>4872</v>
       </c>
       <c r="Q343" s="6">
         <v>2</v>
@@ -35887,7 +35876,7 @@
         <v>3085</v>
       </c>
       <c r="P344" s="19" t="s">
-        <v>4872</v>
+        <v>4873</v>
       </c>
       <c r="Q344" s="6">
         <v>2</v>
@@ -35946,7 +35935,7 @@
         <v>3094</v>
       </c>
       <c r="P345" s="19" t="s">
-        <v>4873</v>
+        <v>4874</v>
       </c>
       <c r="Q345" s="6">
         <v>2</v>
@@ -36005,7 +35994,7 @@
         <v>3103</v>
       </c>
       <c r="P346" s="19" t="s">
-        <v>4874</v>
+        <v>4875</v>
       </c>
       <c r="Q346" s="6">
         <v>2</v>
@@ -36064,7 +36053,7 @@
         <v>3111</v>
       </c>
       <c r="P347" s="19" t="s">
-        <v>4875</v>
+        <v>4876</v>
       </c>
       <c r="Q347" s="6">
         <v>2</v>
@@ -36123,7 +36112,7 @@
         <v>3119</v>
       </c>
       <c r="P348" s="19" t="s">
-        <v>4876</v>
+        <v>4877</v>
       </c>
       <c r="Q348" s="6">
         <v>2</v>
@@ -36182,7 +36171,7 @@
         <v>3128</v>
       </c>
       <c r="P349" s="19" t="s">
-        <v>4877</v>
+        <v>4878</v>
       </c>
       <c r="Q349" s="6">
         <v>2</v>
@@ -36241,7 +36230,7 @@
         <v>3136</v>
       </c>
       <c r="P350" s="19" t="s">
-        <v>4878</v>
+        <v>4879</v>
       </c>
       <c r="Q350" s="6">
         <v>2</v>
@@ -36298,7 +36287,7 @@
         <v>3143</v>
       </c>
       <c r="P351" s="19" t="s">
-        <v>4879</v>
+        <v>4880</v>
       </c>
       <c r="Q351" s="6">
         <v>2</v>
@@ -36357,7 +36346,7 @@
         <v>3152</v>
       </c>
       <c r="P352" s="19" t="s">
-        <v>4880</v>
+        <v>4881</v>
       </c>
       <c r="Q352" s="6">
         <v>2</v>
@@ -36414,7 +36403,7 @@
         <v>3161</v>
       </c>
       <c r="P353" s="19" t="s">
-        <v>4881</v>
+        <v>4882</v>
       </c>
       <c r="Q353" s="6">
         <v>2</v>
@@ -36473,7 +36462,7 @@
         <v>3168</v>
       </c>
       <c r="P354" s="19" t="s">
-        <v>4882</v>
+        <v>4883</v>
       </c>
       <c r="Q354" s="6">
         <v>2</v>
@@ -36532,7 +36521,7 @@
         <v>3177</v>
       </c>
       <c r="P355" s="19" t="s">
-        <v>4883</v>
+        <v>4884</v>
       </c>
       <c r="Q355" s="9">
         <v>2</v>
@@ -36591,7 +36580,7 @@
         <v>3186</v>
       </c>
       <c r="P356" s="19" t="s">
-        <v>4884</v>
+        <v>4885</v>
       </c>
       <c r="Q356" s="6">
         <v>2</v>
@@ -36650,7 +36639,7 @@
         <v>3196</v>
       </c>
       <c r="P357" s="19" t="s">
-        <v>4885</v>
+        <v>4886</v>
       </c>
       <c r="Q357" s="6">
         <v>2</v>
@@ -36709,7 +36698,7 @@
         <v>3206</v>
       </c>
       <c r="P358" s="19" t="s">
-        <v>4886</v>
+        <v>4887</v>
       </c>
       <c r="Q358" s="6">
         <v>2</v>
@@ -36768,7 +36757,7 @@
         <v>3216</v>
       </c>
       <c r="P359" s="19" t="s">
-        <v>4887</v>
+        <v>4888</v>
       </c>
       <c r="Q359" s="6">
         <v>2</v>
@@ -36827,7 +36816,7 @@
         <v>3226</v>
       </c>
       <c r="P360" s="19" t="s">
-        <v>4888</v>
+        <v>4889</v>
       </c>
       <c r="Q360" s="6">
         <v>2</v>
@@ -36884,7 +36873,7 @@
         <v>3234</v>
       </c>
       <c r="P361" s="19" t="s">
-        <v>4889</v>
+        <v>4890</v>
       </c>
       <c r="Q361" s="6">
         <v>2</v>
@@ -36941,7 +36930,7 @@
         <v>3242</v>
       </c>
       <c r="P362" s="19" t="s">
-        <v>4890</v>
+        <v>4891</v>
       </c>
       <c r="Q362" s="9">
         <v>2</v>
@@ -37000,7 +36989,7 @@
         <v>3250</v>
       </c>
       <c r="P363" s="19" t="s">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="Q363" s="6">
         <v>2</v>
@@ -37059,7 +37048,7 @@
         <v>3260</v>
       </c>
       <c r="P364" s="19" t="s">
-        <v>4892</v>
+        <v>4893</v>
       </c>
       <c r="Q364" s="6">
         <v>2</v>
@@ -37118,7 +37107,7 @@
         <v>3269</v>
       </c>
       <c r="P365" s="19" t="s">
-        <v>4893</v>
+        <v>4894</v>
       </c>
       <c r="Q365" s="6">
         <v>2</v>
@@ -37177,7 +37166,7 @@
         <v>3277</v>
       </c>
       <c r="P366" s="19" t="s">
-        <v>4894</v>
+        <v>4895</v>
       </c>
       <c r="Q366" s="6">
         <v>2</v>
@@ -37236,7 +37225,7 @@
         <v>3286</v>
       </c>
       <c r="P367" s="19" t="s">
-        <v>4895</v>
+        <v>4896</v>
       </c>
       <c r="Q367" s="6">
         <v>2</v>
@@ -37295,7 +37284,7 @@
         <v>3294</v>
       </c>
       <c r="P368" s="19" t="s">
-        <v>4896</v>
+        <v>4897</v>
       </c>
       <c r="Q368" s="6">
         <v>1</v>
@@ -37352,7 +37341,7 @@
         <v>3302</v>
       </c>
       <c r="P369" s="19" t="s">
-        <v>4897</v>
+        <v>4898</v>
       </c>
       <c r="Q369" s="6">
         <v>1</v>
@@ -37411,7 +37400,7 @@
         <v>3310</v>
       </c>
       <c r="P370" s="19" t="s">
-        <v>4898</v>
+        <v>4899</v>
       </c>
       <c r="Q370" s="6">
         <v>1</v>
@@ -37470,7 +37459,7 @@
         <v>3318</v>
       </c>
       <c r="P371" s="19" t="s">
-        <v>4899</v>
+        <v>4900</v>
       </c>
       <c r="Q371" s="6">
         <v>1</v>
@@ -37529,7 +37518,7 @@
         <v>3328</v>
       </c>
       <c r="P372" s="19" t="s">
-        <v>4900</v>
+        <v>4901</v>
       </c>
       <c r="Q372" s="6">
         <v>0</v>
@@ -37588,7 +37577,7 @@
         <v>3338</v>
       </c>
       <c r="P373" s="19" t="s">
-        <v>4901</v>
+        <v>4902</v>
       </c>
       <c r="Q373" s="6">
         <v>0</v>
@@ -37647,7 +37636,7 @@
         <v>3347</v>
       </c>
       <c r="P374" s="19" t="s">
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="Q374" s="6">
         <v>0</v>
@@ -37704,7 +37693,7 @@
         <v>3355</v>
       </c>
       <c r="P375" s="19" t="s">
-        <v>4903</v>
+        <v>4904</v>
       </c>
       <c r="Q375" s="6">
         <v>0</v>
@@ -37763,7 +37752,7 @@
         <v>3363</v>
       </c>
       <c r="P376" s="19" t="s">
-        <v>4904</v>
+        <v>4905</v>
       </c>
       <c r="Q376" s="6">
         <v>0</v>
@@ -37822,7 +37811,7 @@
         <v>3370</v>
       </c>
       <c r="P377" s="19" t="s">
-        <v>4905</v>
+        <v>4906</v>
       </c>
       <c r="Q377" s="6">
         <v>0</v>
@@ -37881,7 +37870,7 @@
         <v>3378</v>
       </c>
       <c r="P378" s="19" t="s">
-        <v>4906</v>
+        <v>4907</v>
       </c>
       <c r="Q378" s="6">
         <v>0</v>
@@ -37940,7 +37929,7 @@
         <v>3386</v>
       </c>
       <c r="P379" s="19" t="s">
-        <v>4907</v>
+        <v>4908</v>
       </c>
       <c r="Q379" s="6">
         <v>0</v>
@@ -37995,7 +37984,7 @@
         <v>3393</v>
       </c>
       <c r="P380" s="19" t="s">
-        <v>4908</v>
+        <v>4909</v>
       </c>
       <c r="Q380" s="6">
         <v>0</v>
@@ -38054,7 +38043,7 @@
         <v>3402</v>
       </c>
       <c r="P381" s="19" t="s">
-        <v>4909</v>
+        <v>4910</v>
       </c>
       <c r="Q381" s="6">
         <v>0</v>
@@ -38111,7 +38100,7 @@
         <v>3409</v>
       </c>
       <c r="P382" s="19" t="s">
-        <v>4910</v>
+        <v>4911</v>
       </c>
       <c r="Q382" s="6">
         <v>0</v>
@@ -38168,7 +38157,7 @@
         <v>3415</v>
       </c>
       <c r="P383" s="19" t="s">
-        <v>4911</v>
+        <v>4912</v>
       </c>
       <c r="Q383" s="6">
         <v>0</v>
@@ -38227,7 +38216,7 @@
         <v>3424</v>
       </c>
       <c r="P384" s="19" t="s">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="Q384" s="6">
         <v>0</v>
@@ -38286,7 +38275,7 @@
         <v>3433</v>
       </c>
       <c r="P385" s="19" t="s">
-        <v>4913</v>
+        <v>4914</v>
       </c>
       <c r="Q385" s="6">
         <v>0</v>
@@ -38345,7 +38334,7 @@
         <v>3441</v>
       </c>
       <c r="P386" s="19" t="s">
-        <v>4914</v>
+        <v>4915</v>
       </c>
       <c r="Q386" s="6">
         <v>0</v>
@@ -38404,7 +38393,7 @@
         <v>3450</v>
       </c>
       <c r="P387" s="19" t="s">
-        <v>4915</v>
+        <v>4916</v>
       </c>
       <c r="Q387" s="6">
         <v>0</v>
@@ -38463,7 +38452,7 @@
         <v>3458</v>
       </c>
       <c r="P388" s="19" t="s">
-        <v>4916</v>
+        <v>4917</v>
       </c>
       <c r="Q388" s="6">
         <v>0</v>
@@ -38520,7 +38509,7 @@
         <v>3465</v>
       </c>
       <c r="P389" s="19" t="s">
-        <v>4917</v>
+        <v>4918</v>
       </c>
       <c r="Q389" s="6">
         <v>0</v>
@@ -38579,7 +38568,7 @@
         <v>3472</v>
       </c>
       <c r="P390" s="19" t="s">
-        <v>4918</v>
+        <v>4919</v>
       </c>
       <c r="Q390" s="6">
         <v>0</v>
@@ -38636,7 +38625,7 @@
         <v>3479</v>
       </c>
       <c r="P391" s="19" t="s">
-        <v>4919</v>
+        <v>4920</v>
       </c>
       <c r="Q391" s="6">
         <v>0</v>
@@ -38693,7 +38682,7 @@
         <v>3487</v>
       </c>
       <c r="P392" s="19" t="s">
-        <v>4920</v>
+        <v>4921</v>
       </c>
       <c r="Q392" s="6">
         <v>0</v>
@@ -38752,7 +38741,7 @@
         <v>3496</v>
       </c>
       <c r="P393" s="19" t="s">
-        <v>4921</v>
+        <v>4922</v>
       </c>
       <c r="Q393" s="6">
         <v>0</v>
@@ -38811,7 +38800,7 @@
         <v>3504</v>
       </c>
       <c r="P394" s="19" t="s">
-        <v>4922</v>
+        <v>4923</v>
       </c>
       <c r="Q394" s="6">
         <v>0</v>
@@ -38868,7 +38857,7 @@
         <v>3511</v>
       </c>
       <c r="P395" s="19" t="s">
-        <v>4923</v>
+        <v>4924</v>
       </c>
       <c r="Q395" s="6">
         <v>0</v>
@@ -38927,7 +38916,7 @@
         <v>3520</v>
       </c>
       <c r="P396" s="19" t="s">
-        <v>4924</v>
+        <v>4925</v>
       </c>
       <c r="Q396" s="6">
         <v>0</v>
@@ -38986,7 +38975,7 @@
         <v>3529</v>
       </c>
       <c r="P397" s="19" t="s">
-        <v>4925</v>
+        <v>4926</v>
       </c>
       <c r="Q397" s="6">
         <v>0</v>
@@ -39045,7 +39034,7 @@
         <v>3539</v>
       </c>
       <c r="P398" s="19" t="s">
-        <v>4926</v>
+        <v>4927</v>
       </c>
       <c r="Q398" s="6">
         <v>0</v>
@@ -39102,7 +39091,7 @@
         <v>3546</v>
       </c>
       <c r="P399" s="19" t="s">
-        <v>4927</v>
+        <v>4928</v>
       </c>
       <c r="Q399" s="6">
         <v>0</v>
@@ -39161,7 +39150,7 @@
         <v>3554</v>
       </c>
       <c r="P400" s="19" t="s">
-        <v>4928</v>
+        <v>4929</v>
       </c>
       <c r="Q400" s="6">
         <v>0</v>
@@ -39220,7 +39209,7 @@
         <v>3561</v>
       </c>
       <c r="P401" s="19" t="s">
-        <v>4929</v>
+        <v>4930</v>
       </c>
       <c r="Q401" s="6">
         <v>0</v>
@@ -39279,7 +39268,7 @@
         <v>3569</v>
       </c>
       <c r="P402" s="19" t="s">
-        <v>4930</v>
+        <v>4931</v>
       </c>
       <c r="Q402" s="6">
         <v>0</v>
@@ -39338,7 +39327,7 @@
         <v>3577</v>
       </c>
       <c r="P403" s="19" t="s">
-        <v>4931</v>
+        <v>4932</v>
       </c>
       <c r="Q403" s="6">
         <v>0</v>
@@ -39397,7 +39386,7 @@
         <v>3584</v>
       </c>
       <c r="P404" s="19" t="s">
-        <v>4932</v>
+        <v>4933</v>
       </c>
       <c r="Q404" s="6">
         <v>0</v>
@@ -39456,7 +39445,7 @@
         <v>3592</v>
       </c>
       <c r="P405" s="19" t="s">
-        <v>4933</v>
+        <v>4934</v>
       </c>
       <c r="Q405" s="6">
         <v>0</v>
@@ -39515,7 +39504,7 @@
         <v>3601</v>
       </c>
       <c r="P406" s="19" t="s">
-        <v>4934</v>
+        <v>4935</v>
       </c>
       <c r="Q406" s="6">
         <v>0</v>
@@ -39574,7 +39563,7 @@
         <v>3608</v>
       </c>
       <c r="P407" s="19" t="s">
-        <v>4935</v>
+        <v>4936</v>
       </c>
       <c r="Q407" s="6">
         <v>0</v>
@@ -39631,7 +39620,7 @@
         <v>3614</v>
       </c>
       <c r="P408" s="19" t="s">
-        <v>4936</v>
+        <v>4937</v>
       </c>
       <c r="Q408" s="6">
         <v>0</v>
@@ -39690,7 +39679,7 @@
         <v>3623</v>
       </c>
       <c r="P409" s="19" t="s">
-        <v>4937</v>
+        <v>4938</v>
       </c>
       <c r="Q409" s="6">
         <v>0</v>
@@ -39749,7 +39738,7 @@
         <v>3631</v>
       </c>
       <c r="P410" s="19" t="s">
-        <v>4938</v>
+        <v>4939</v>
       </c>
       <c r="Q410" s="6">
         <v>0</v>
@@ -39808,7 +39797,7 @@
         <v>3640</v>
       </c>
       <c r="P411" s="19" t="s">
-        <v>4939</v>
+        <v>4940</v>
       </c>
       <c r="Q411" s="6">
         <v>0</v>
@@ -39865,7 +39854,7 @@
         <v>3647</v>
       </c>
       <c r="P412" s="19" t="s">
-        <v>4940</v>
+        <v>4941</v>
       </c>
       <c r="Q412" s="6">
         <v>0</v>
@@ -39924,7 +39913,7 @@
         <v>3655</v>
       </c>
       <c r="P413" s="19" t="s">
-        <v>4941</v>
+        <v>4942</v>
       </c>
       <c r="Q413" s="6">
         <v>0</v>
@@ -39983,7 +39972,7 @@
         <v>3665</v>
       </c>
       <c r="P414" s="19" t="s">
-        <v>4942</v>
+        <v>4943</v>
       </c>
       <c r="Q414" s="6">
         <v>0</v>
@@ -40040,7 +40029,7 @@
         <v>3673</v>
       </c>
       <c r="P415" s="19" t="s">
-        <v>4943</v>
+        <v>4944</v>
       </c>
       <c r="Q415" s="6">
         <v>0</v>
@@ -40099,7 +40088,7 @@
         <v>3683</v>
       </c>
       <c r="P416" s="19" t="s">
-        <v>4944</v>
+        <v>4945</v>
       </c>
       <c r="Q416" s="6">
         <v>0</v>
@@ -40158,7 +40147,7 @@
         <v>3691</v>
       </c>
       <c r="P417" s="19" t="s">
-        <v>4945</v>
+        <v>4946</v>
       </c>
       <c r="Q417" s="6">
         <v>0</v>
@@ -40217,7 +40206,7 @@
         <v>3699</v>
       </c>
       <c r="P418" s="19" t="s">
-        <v>4946</v>
+        <v>4947</v>
       </c>
       <c r="Q418" s="6">
         <v>0</v>
@@ -40276,7 +40265,7 @@
         <v>3706</v>
       </c>
       <c r="P419" s="19" t="s">
-        <v>4947</v>
+        <v>4948</v>
       </c>
       <c r="Q419" s="6">
         <v>0</v>
@@ -40331,7 +40320,7 @@
         <v>3712</v>
       </c>
       <c r="P420" s="19" t="s">
-        <v>4948</v>
+        <v>4949</v>
       </c>
       <c r="Q420" s="6">
         <v>0</v>
@@ -40388,7 +40377,7 @@
         <v>3720</v>
       </c>
       <c r="P421" s="19" t="s">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="Q421" s="6">
         <v>0</v>
@@ -40447,7 +40436,7 @@
         <v>3728</v>
       </c>
       <c r="P422" s="19" t="s">
-        <v>4950</v>
+        <v>4951</v>
       </c>
       <c r="Q422" s="6">
         <v>0</v>
@@ -40504,7 +40493,7 @@
         <v>3735</v>
       </c>
       <c r="P423" s="19" t="s">
-        <v>4951</v>
+        <v>4952</v>
       </c>
       <c r="Q423" s="6">
         <v>0</v>
@@ -40563,7 +40552,7 @@
         <v>3744</v>
       </c>
       <c r="P424" s="19" t="s">
-        <v>4952</v>
+        <v>4953</v>
       </c>
       <c r="Q424" s="6">
         <v>0</v>
@@ -40622,7 +40611,7 @@
         <v>3752</v>
       </c>
       <c r="P425" s="19" t="s">
-        <v>4953</v>
+        <v>4954</v>
       </c>
       <c r="Q425" s="6">
         <v>0</v>
@@ -40681,7 +40670,7 @@
         <v>3761</v>
       </c>
       <c r="P426" s="19" t="s">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="Q426" s="6">
         <v>0</v>
@@ -40740,7 +40729,7 @@
         <v>3770</v>
       </c>
       <c r="P427" s="19" t="s">
-        <v>4955</v>
+        <v>4956</v>
       </c>
       <c r="Q427" s="6">
         <v>0</v>
@@ -40799,7 +40788,7 @@
         <v>3778</v>
       </c>
       <c r="P428" s="19" t="s">
-        <v>4956</v>
+        <v>4957</v>
       </c>
       <c r="Q428" s="6">
         <v>0</v>
@@ -40858,7 +40847,7 @@
         <v>3787</v>
       </c>
       <c r="P429" s="19" t="s">
-        <v>4957</v>
+        <v>4958</v>
       </c>
       <c r="Q429" s="6">
         <v>0</v>
@@ -40917,7 +40906,7 @@
         <v>3795</v>
       </c>
       <c r="P430" s="19" t="s">
-        <v>4958</v>
+        <v>4959</v>
       </c>
       <c r="Q430" s="6">
         <v>0</v>
@@ -40976,7 +40965,7 @@
         <v>3804</v>
       </c>
       <c r="P431" s="19" t="s">
-        <v>4959</v>
+        <v>4960</v>
       </c>
       <c r="Q431" s="6">
         <v>0</v>
@@ -41035,7 +41024,7 @@
         <v>3814</v>
       </c>
       <c r="P432" s="19" t="s">
-        <v>4960</v>
+        <v>4961</v>
       </c>
       <c r="Q432" s="6">
         <v>0</v>
@@ -41094,7 +41083,7 @@
         <v>3823</v>
       </c>
       <c r="P433" s="19" t="s">
-        <v>4961</v>
+        <v>4962</v>
       </c>
       <c r="Q433" s="6">
         <v>0</v>
@@ -41149,7 +41138,7 @@
         <v>3829</v>
       </c>
       <c r="P434" s="19" t="s">
-        <v>4962</v>
+        <v>4963</v>
       </c>
       <c r="Q434" s="6">
         <v>0</v>
@@ -41206,7 +41195,7 @@
         <v>3835</v>
       </c>
       <c r="P435" s="19" t="s">
-        <v>4963</v>
+        <v>4964</v>
       </c>
       <c r="Q435" s="6">
         <v>0</v>
@@ -41265,7 +41254,7 @@
         <v>3844</v>
       </c>
       <c r="P436" s="19" t="s">
-        <v>4964</v>
+        <v>4965</v>
       </c>
       <c r="Q436" s="6">
         <v>0</v>
@@ -41324,7 +41313,7 @@
         <v>3853</v>
       </c>
       <c r="P437" s="19" t="s">
-        <v>4965</v>
+        <v>4966</v>
       </c>
       <c r="Q437" s="6">
         <v>0</v>
@@ -41381,7 +41370,7 @@
         <v>3860</v>
       </c>
       <c r="P438" s="19" t="s">
-        <v>4966</v>
+        <v>4967</v>
       </c>
       <c r="Q438" s="6">
         <v>0</v>
@@ -41438,7 +41427,7 @@
         <v>3869</v>
       </c>
       <c r="P439" s="19" t="s">
-        <v>4967</v>
+        <v>4968</v>
       </c>
       <c r="Q439" s="9">
         <v>0</v>
@@ -41495,7 +41484,7 @@
         <v>3877</v>
       </c>
       <c r="P440" s="19" t="s">
-        <v>4968</v>
+        <v>4969</v>
       </c>
       <c r="Q440" s="6">
         <v>0</v>
@@ -41554,7 +41543,7 @@
         <v>3886</v>
       </c>
       <c r="P441" s="19" t="s">
-        <v>4969</v>
+        <v>4970</v>
       </c>
       <c r="Q441" s="6">
         <v>0</v>
@@ -41611,7 +41600,7 @@
         <v>3894</v>
       </c>
       <c r="P442" s="19" t="s">
-        <v>4970</v>
+        <v>4971</v>
       </c>
       <c r="Q442" s="6">
         <v>0</v>
@@ -41670,7 +41659,7 @@
         <v>3902</v>
       </c>
       <c r="P443" s="19" t="s">
-        <v>4971</v>
+        <v>4972</v>
       </c>
       <c r="Q443" s="6">
         <v>0</v>
@@ -41729,7 +41718,7 @@
         <v>3910</v>
       </c>
       <c r="P444" s="19" t="s">
-        <v>4972</v>
+        <v>4973</v>
       </c>
       <c r="Q444" s="6">
         <v>0</v>
@@ -41788,7 +41777,7 @@
         <v>3919</v>
       </c>
       <c r="P445" s="19" t="s">
-        <v>4973</v>
+        <v>4974</v>
       </c>
       <c r="Q445" s="6">
         <v>0</v>
@@ -41845,7 +41834,7 @@
         <v>3926</v>
       </c>
       <c r="P446" s="19" t="s">
-        <v>4974</v>
+        <v>4975</v>
       </c>
       <c r="Q446" s="6">
         <v>0</v>
@@ -41904,7 +41893,7 @@
         <v>3934</v>
       </c>
       <c r="P447" s="19" t="s">
-        <v>4975</v>
+        <v>4976</v>
       </c>
       <c r="Q447" s="6">
         <v>0</v>
@@ -41961,7 +41950,7 @@
         <v>3940</v>
       </c>
       <c r="P448" s="19" t="s">
-        <v>4976</v>
+        <v>4977</v>
       </c>
       <c r="Q448" s="6">
         <v>0</v>
@@ -42020,7 +42009,7 @@
         <v>3948</v>
       </c>
       <c r="P449" s="19" t="s">
-        <v>4977</v>
+        <v>4978</v>
       </c>
       <c r="Q449" s="9">
         <v>0</v>
@@ -42077,7 +42066,7 @@
         <v>3956</v>
       </c>
       <c r="P450" s="19" t="s">
-        <v>4978</v>
+        <v>4979</v>
       </c>
       <c r="Q450" s="6">
         <v>0</v>
@@ -42134,7 +42123,7 @@
         <v>3962</v>
       </c>
       <c r="P451" s="19" t="s">
-        <v>4979</v>
+        <v>4980</v>
       </c>
       <c r="Q451" s="6">
         <v>0</v>
@@ -42193,7 +42182,7 @@
         <v>3970</v>
       </c>
       <c r="P452" s="19" t="s">
-        <v>4980</v>
+        <v>4981</v>
       </c>
       <c r="Q452" s="6">
         <v>0</v>
@@ -42250,7 +42239,7 @@
         <v>3976</v>
       </c>
       <c r="P453" s="19" t="s">
-        <v>4981</v>
+        <v>4982</v>
       </c>
       <c r="Q453" s="6">
         <v>0</v>
@@ -42309,7 +42298,7 @@
         <v>3984</v>
       </c>
       <c r="P454" s="19" t="s">
-        <v>4982</v>
+        <v>4983</v>
       </c>
       <c r="Q454" s="6">
         <v>0</v>
@@ -42368,7 +42357,7 @@
         <v>3990</v>
       </c>
       <c r="P455" s="19" t="s">
-        <v>4983</v>
+        <v>4984</v>
       </c>
       <c r="Q455" s="6">
         <v>0</v>
@@ -42427,7 +42416,7 @@
         <v>3998</v>
       </c>
       <c r="P456" s="19" t="s">
-        <v>4984</v>
+        <v>4985</v>
       </c>
       <c r="Q456" s="6">
         <v>0</v>
@@ -42484,7 +42473,7 @@
         <v>4005</v>
       </c>
       <c r="P457" s="19" t="s">
-        <v>4985</v>
+        <v>4986</v>
       </c>
       <c r="Q457" s="9">
         <v>0</v>
@@ -42543,7 +42532,7 @@
         <v>4013</v>
       </c>
       <c r="P458" s="19" t="s">
-        <v>4986</v>
+        <v>4987</v>
       </c>
       <c r="Q458" s="6">
         <v>0</v>
@@ -42602,7 +42591,7 @@
         <v>4020</v>
       </c>
       <c r="P459" s="19" t="s">
-        <v>4987</v>
+        <v>4988</v>
       </c>
       <c r="Q459" s="6">
         <v>0</v>
@@ -42659,7 +42648,7 @@
         <v>4028</v>
       </c>
       <c r="P460" s="19" t="s">
-        <v>4988</v>
+        <v>4989</v>
       </c>
       <c r="Q460" s="6">
         <v>0</v>
@@ -42718,7 +42707,7 @@
         <v>4036</v>
       </c>
       <c r="P461" s="19" t="s">
-        <v>4989</v>
+        <v>4990</v>
       </c>
       <c r="Q461" s="6">
         <v>0</v>
@@ -42777,7 +42766,7 @@
         <v>4044</v>
       </c>
       <c r="P462" s="19" t="s">
-        <v>4990</v>
+        <v>4991</v>
       </c>
       <c r="Q462" s="6">
         <v>0</v>
@@ -42836,7 +42825,7 @@
         <v>4052</v>
       </c>
       <c r="P463" s="19" t="s">
-        <v>4991</v>
+        <v>4992</v>
       </c>
       <c r="Q463" s="6">
         <v>0</v>
@@ -42895,7 +42884,7 @@
         <v>4061</v>
       </c>
       <c r="P464" s="19" t="s">
-        <v>4992</v>
+        <v>4993</v>
       </c>
       <c r="Q464" s="6">
         <v>0</v>
@@ -42954,7 +42943,7 @@
         <v>4069</v>
       </c>
       <c r="P465" s="19" t="s">
-        <v>4993</v>
+        <v>4994</v>
       </c>
       <c r="Q465" s="6">
         <v>0</v>
@@ -43013,7 +43002,7 @@
         <v>4076</v>
       </c>
       <c r="P466" s="19" t="s">
-        <v>4994</v>
+        <v>4995</v>
       </c>
       <c r="Q466" s="6">
         <v>0</v>
@@ -43072,7 +43061,7 @@
         <v>4083</v>
       </c>
       <c r="P467" s="19" t="s">
-        <v>4995</v>
+        <v>4996</v>
       </c>
       <c r="Q467" s="6">
         <v>0</v>
@@ -43131,7 +43120,7 @@
         <v>4091</v>
       </c>
       <c r="P468" s="19" t="s">
-        <v>4996</v>
+        <v>4997</v>
       </c>
       <c r="Q468" s="6">
         <v>0</v>
@@ -43190,7 +43179,7 @@
         <v>4098</v>
       </c>
       <c r="P469" s="19" t="s">
-        <v>4997</v>
+        <v>4998</v>
       </c>
       <c r="Q469" s="6">
         <v>0</v>
@@ -43249,7 +43238,7 @@
         <v>4105</v>
       </c>
       <c r="P470" s="19" t="s">
-        <v>4998</v>
+        <v>4999</v>
       </c>
       <c r="Q470" s="6">
         <v>0</v>
@@ -43308,7 +43297,7 @@
         <v>4115</v>
       </c>
       <c r="P471" s="19" t="s">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="Q471" s="6">
         <v>0</v>
@@ -43367,7 +43356,7 @@
         <v>4122</v>
       </c>
       <c r="P472" s="19" t="s">
-        <v>5000</v>
+        <v>5001</v>
       </c>
       <c r="Q472" s="6">
         <v>0</v>
@@ -43426,7 +43415,7 @@
         <v>4130</v>
       </c>
       <c r="P473" s="19" t="s">
-        <v>5001</v>
+        <v>5002</v>
       </c>
       <c r="Q473" s="6">
         <v>0</v>
@@ -43485,7 +43474,7 @@
         <v>4137</v>
       </c>
       <c r="P474" s="19" t="s">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="Q474" s="6">
         <v>0</v>
@@ -43544,7 +43533,7 @@
         <v>4146</v>
       </c>
       <c r="P475" s="19" t="s">
-        <v>5003</v>
+        <v>5004</v>
       </c>
       <c r="Q475" s="6">
         <v>0</v>
@@ -43603,7 +43592,7 @@
         <v>4155</v>
       </c>
       <c r="P476" s="19" t="s">
-        <v>5004</v>
+        <v>5005</v>
       </c>
       <c r="Q476" s="6">
         <v>0</v>
@@ -43662,7 +43651,7 @@
         <v>4163</v>
       </c>
       <c r="P477" s="19" t="s">
-        <v>5005</v>
+        <v>5006</v>
       </c>
       <c r="Q477" s="6">
         <v>0</v>
@@ -43721,7 +43710,7 @@
         <v>4172</v>
       </c>
       <c r="P478" s="19" t="s">
-        <v>5006</v>
+        <v>5007</v>
       </c>
       <c r="Q478" s="6">
         <v>0</v>
@@ -43780,7 +43769,7 @@
         <v>4181</v>
       </c>
       <c r="P479" s="19" t="s">
-        <v>5007</v>
+        <v>5008</v>
       </c>
       <c r="Q479" s="6">
         <v>0</v>
@@ -43839,7 +43828,7 @@
         <v>4189</v>
       </c>
       <c r="P480" s="19" t="s">
-        <v>5008</v>
+        <v>5009</v>
       </c>
       <c r="Q480" s="6">
         <v>0</v>
@@ -43896,7 +43885,7 @@
         <v>4196</v>
       </c>
       <c r="P481" s="19" t="s">
-        <v>5009</v>
+        <v>5010</v>
       </c>
       <c r="Q481" s="12">
         <v>0</v>
@@ -43955,7 +43944,7 @@
         <v>4204</v>
       </c>
       <c r="P482" s="19" t="s">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="Q482" s="6">
         <v>0</v>
@@ -44014,7 +44003,7 @@
         <v>4211</v>
       </c>
       <c r="P483" s="19" t="s">
-        <v>5011</v>
+        <v>5012</v>
       </c>
       <c r="Q483" s="6">
         <v>0</v>
@@ -44071,7 +44060,7 @@
         <v>4219</v>
       </c>
       <c r="P484" s="19" t="s">
-        <v>5012</v>
+        <v>5013</v>
       </c>
       <c r="Q484" s="6">
         <v>0</v>
@@ -44130,7 +44119,7 @@
         <v>4228</v>
       </c>
       <c r="P485" s="19" t="s">
-        <v>5013</v>
+        <v>5014</v>
       </c>
       <c r="Q485" s="6">
         <v>0</v>
@@ -44189,7 +44178,7 @@
         <v>4236</v>
       </c>
       <c r="P486" s="19" t="s">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="Q486" s="6">
         <v>0</v>
@@ -44248,7 +44237,7 @@
         <v>4244</v>
       </c>
       <c r="P487" s="19" t="s">
-        <v>5015</v>
+        <v>5016</v>
       </c>
       <c r="Q487" s="6">
         <v>0</v>
@@ -44307,7 +44296,7 @@
         <v>4252</v>
       </c>
       <c r="P488" s="19" t="s">
-        <v>5016</v>
+        <v>5017</v>
       </c>
       <c r="Q488" s="6">
         <v>0</v>
@@ -44366,7 +44355,7 @@
         <v>4260</v>
       </c>
       <c r="P489" s="19" t="s">
-        <v>5017</v>
+        <v>5018</v>
       </c>
       <c r="Q489" s="6">
         <v>0</v>
@@ -44425,7 +44414,7 @@
         <v>4267</v>
       </c>
       <c r="P490" s="19" t="s">
-        <v>5018</v>
+        <v>5019</v>
       </c>
       <c r="Q490" s="6">
         <v>0</v>
@@ -44484,7 +44473,7 @@
         <v>4276</v>
       </c>
       <c r="P491" s="19" t="s">
-        <v>5019</v>
+        <v>5020</v>
       </c>
       <c r="Q491" s="6">
         <v>0</v>
@@ -44543,7 +44532,7 @@
         <v>4283</v>
       </c>
       <c r="P492" s="19" t="s">
-        <v>5020</v>
+        <v>5021</v>
       </c>
       <c r="Q492" s="6">
         <v>0</v>
@@ -44602,7 +44591,7 @@
         <v>4291</v>
       </c>
       <c r="P493" s="19" t="s">
-        <v>5021</v>
+        <v>5022</v>
       </c>
       <c r="Q493" s="6">
         <v>0</v>
@@ -44661,7 +44650,7 @@
         <v>4298</v>
       </c>
       <c r="P494" s="19" t="s">
-        <v>5022</v>
+        <v>5023</v>
       </c>
       <c r="Q494" s="6">
         <v>0</v>
@@ -44720,7 +44709,7 @@
         <v>4305</v>
       </c>
       <c r="P495" s="19" t="s">
-        <v>5023</v>
+        <v>5024</v>
       </c>
       <c r="Q495" s="6">
         <v>0</v>
@@ -44779,7 +44768,7 @@
         <v>4313</v>
       </c>
       <c r="P496" s="19" t="s">
-        <v>5024</v>
+        <v>5025</v>
       </c>
       <c r="Q496" s="6">
         <v>0</v>
@@ -44834,7 +44823,7 @@
         <v>4318</v>
       </c>
       <c r="P497" s="19" t="s">
-        <v>5025</v>
+        <v>5026</v>
       </c>
       <c r="Q497" s="6">
         <v>0</v>
@@ -44891,7 +44880,7 @@
         <v>4325</v>
       </c>
       <c r="P498" s="19" t="s">
-        <v>5026</v>
+        <v>5027</v>
       </c>
       <c r="Q498" s="6">
         <v>0</v>
@@ -44950,7 +44939,7 @@
         <v>4333</v>
       </c>
       <c r="P499" s="19" t="s">
-        <v>5027</v>
+        <v>5028</v>
       </c>
       <c r="Q499" s="6">
         <v>0</v>
@@ -45007,7 +44996,7 @@
         <v>4340</v>
       </c>
       <c r="P500" s="19" t="s">
-        <v>5028</v>
+        <v>5029</v>
       </c>
       <c r="Q500" s="6">
         <v>0</v>
@@ -45066,7 +45055,7 @@
         <v>4348</v>
       </c>
       <c r="P501" s="19" t="s">
-        <v>5029</v>
+        <v>5030</v>
       </c>
       <c r="Q501" s="6">
         <v>0</v>
@@ -45123,7 +45112,7 @@
         <v>4355</v>
       </c>
       <c r="P502" s="19" t="s">
-        <v>5030</v>
+        <v>5031</v>
       </c>
       <c r="Q502" s="6">
         <v>0</v>
@@ -45182,7 +45171,7 @@
         <v>4362</v>
       </c>
       <c r="P503" s="19" t="s">
-        <v>5031</v>
+        <v>5032</v>
       </c>
       <c r="Q503" s="6">
         <v>0</v>
@@ -45241,7 +45230,7 @@
         <v>4370</v>
       </c>
       <c r="P504" s="19" t="s">
-        <v>5032</v>
+        <v>5033</v>
       </c>
       <c r="Q504" s="6">
         <v>0</v>
@@ -45298,7 +45287,7 @@
         <v>4377</v>
       </c>
       <c r="P505" s="19" t="s">
-        <v>5033</v>
+        <v>5034</v>
       </c>
       <c r="Q505" s="6">
         <v>0</v>
@@ -45357,7 +45346,7 @@
         <v>4386</v>
       </c>
       <c r="P506" s="19" t="s">
-        <v>5034</v>
+        <v>5035</v>
       </c>
       <c r="Q506" s="6">
         <v>0</v>
@@ -45414,7 +45403,7 @@
         <v>4392</v>
       </c>
       <c r="P507" s="19" t="s">
-        <v>5035</v>
+        <v>5036</v>
       </c>
       <c r="Q507" s="6">
         <v>0</v>
@@ -45473,7 +45462,7 @@
         <v>4401</v>
       </c>
       <c r="P508" s="19" t="s">
-        <v>5036</v>
+        <v>5037</v>
       </c>
       <c r="Q508" s="6">
         <v>0</v>
@@ -45532,7 +45521,7 @@
         <v>4410</v>
       </c>
       <c r="P509" s="19" t="s">
-        <v>5037</v>
+        <v>5038</v>
       </c>
       <c r="Q509" s="6">
         <v>0</v>
@@ -45589,7 +45578,7 @@
         <v>4418</v>
       </c>
       <c r="P510" s="19" t="s">
-        <v>5038</v>
+        <v>5039</v>
       </c>
       <c r="Q510" s="6">
         <v>0</v>
@@ -45646,7 +45635,7 @@
         <v>4426</v>
       </c>
       <c r="P511" s="19" t="s">
-        <v>5039</v>
+        <v>5040</v>
       </c>
       <c r="Q511" s="6">
         <v>0</v>
@@ -45705,7 +45694,7 @@
         <v>4434</v>
       </c>
       <c r="P512" s="19" t="s">
-        <v>5040</v>
+        <v>5041</v>
       </c>
       <c r="Q512" s="6">
         <v>0</v>
@@ -45764,7 +45753,7 @@
         <v>4443</v>
       </c>
       <c r="P513" s="19" t="s">
-        <v>5041</v>
+        <v>5042</v>
       </c>
       <c r="Q513" s="6">
         <v>0</v>
@@ -45821,7 +45810,7 @@
         <v>4451</v>
       </c>
       <c r="P514" s="19" t="s">
-        <v>5042</v>
+        <v>5043</v>
       </c>
       <c r="Q514" s="9">
         <v>0</v>
@@ -45880,7 +45869,7 @@
         <v>4459</v>
       </c>
       <c r="P515" s="19" t="s">
-        <v>5043</v>
+        <v>5044</v>
       </c>
       <c r="Q515" s="6">
         <v>0</v>
@@ -45939,7 +45928,7 @@
         <v>4468</v>
       </c>
       <c r="P516" s="19" t="s">
-        <v>5044</v>
+        <v>5045</v>
       </c>
       <c r="Q516" s="6">
         <v>0</v>
@@ -45998,7 +45987,7 @@
         <v>4474</v>
       </c>
       <c r="P517" s="19" t="s">
-        <v>5045</v>
+        <v>5046</v>
       </c>
       <c r="Q517" s="6">
         <v>0</v>
@@ -46057,7 +46046,7 @@
         <v>4481</v>
       </c>
       <c r="P518" s="19" t="s">
-        <v>5046</v>
+        <v>5047</v>
       </c>
       <c r="Q518" s="6">
         <v>0</v>
@@ -46116,7 +46105,7 @@
         <v>4489</v>
       </c>
       <c r="P519" s="19" t="s">
-        <v>5047</v>
+        <v>5048</v>
       </c>
       <c r="Q519" s="6">
         <v>0</v>
@@ -46175,7 +46164,7 @@
         <v>4497</v>
       </c>
       <c r="P520" s="19" t="s">
-        <v>5048</v>
+        <v>5049</v>
       </c>
       <c r="Q520" s="6">
         <v>0</v>
@@ -46234,7 +46223,7 @@
         <v>4505</v>
       </c>
       <c r="P521" s="19" t="s">
-        <v>5049</v>
+        <v>5050</v>
       </c>
       <c r="Q521" s="6">
         <v>0</v>
@@ -46293,7 +46282,7 @@
         <v>4514</v>
       </c>
       <c r="P522" s="19" t="s">
-        <v>5050</v>
+        <v>5051</v>
       </c>
       <c r="Q522" s="6">
         <v>0</v>
@@ -46350,7 +46339,7 @@
         <v>4521</v>
       </c>
       <c r="P523" s="19" t="s">
-        <v>5051</v>
+        <v>5052</v>
       </c>
       <c r="Q523" s="6">
         <v>0</v>
@@ -46407,7 +46396,7 @@
         <v>4529</v>
       </c>
       <c r="P524" s="19" t="s">
-        <v>5052</v>
+        <v>5053</v>
       </c>
       <c r="Q524" s="6">
         <v>0</v>
@@ -46435,9 +46424,6 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{C02F4527-0AC3-451C-AD35-823F71973F02}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>